--- a/zh-cn.xlsx
+++ b/zh-cn.xlsx
@@ -1,17 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大头菜证券\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B60F90-4FE2-4F2F-B720-C4CB025BC8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="31515" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="汇总" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -102,14 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,151 +186,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,13 +202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,182 +224,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -514,11 +235,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -527,21 +248,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,20 +270,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -570,261 +291,19 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,61 +378,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,19 +646,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V33"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -1250,7 +685,7 @@
     <col min="23" max="23" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:22">
+    <row r="1" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1318,15 +753,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="10">
+        <v>92</v>
+      </c>
+      <c r="E2" s="10">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10">
+        <v>184</v>
+      </c>
+      <c r="H2" s="10">
+        <v>491</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -1337,30 +782,40 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="17">
         <f t="shared" ref="Q2:Q20" si="0">IFERROR($E2/$D2*100%,0%)</f>
-        <v>0</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="R2" s="17" t="str">
         <f>IF(Q2&gt;=91%,"波型or4期",IF(Q2&gt;=85%,"3期or4期or递减型",IF(Q2&gt;=80%,"3期or4期",IF(Q2&gt;=60%,"波形or4期",IF(Q2&lt;60%,"接近4期")))))</f>
-        <v>接近4期</v>
-      </c>
-      <c r="S2" s="18" t="str">
-        <f>IFERROR(IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$H2/$D2&gt;=1.4,$I2/$D2&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H2-$G2&gt;0,$I2-$H2&gt;0,$J2-$I2&gt;0,$K2-$J2&gt;0,$L2-$K2&gt;0),IF($H2-基础数据!$D2:$D2&gt;0,IF($I2-$D2&gt;0,IF($I2/基础数据!$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I2-基础数据!$D2:$D2&gt;0,IF($J2-$D2&gt;0,IF($J2/基础数据!$D2:$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J2-基础数据!$D2:$D2&gt;0,IF($K2-$D2&gt;0,IF($K2/基础数据!$D2:$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K2-基础数据!$D2:$D2&gt;0,IF($L2-$D2&gt;0,IF($L2/基础数据!$D2:$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L2-基础数据!$D2:$D2&gt;0,IF($M2-$D2&gt;0,IF($M2/基础数据!$D2:$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L2&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
-        <v>递减型或三期四期型</v>
+        <v>3期or4期or递减型</v>
+      </c>
+      <c r="S2" s="18" t="str" cm="1">
+        <f t="array" ref="S2">IFERROR(
+    IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$H2/$D2&gt;=1.4,$I2/$D2&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F2-E2&gt;0,G2-F2&gt;0,$H2-$G2&gt;0,$I2-$H2&gt;0,$J2-$I2&gt;0,$K2-$J2&gt;0,$L2-$K2&gt;0),
+    IF($F2-$D2:$D2&gt;0,IF($G2-$D2&gt;0,IF($G2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G2-$D2:$D2&gt;0,IF($H2-$D2&gt;0,IF($H2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H2-$D2:$D2&gt;0,IF($I2-$D2&gt;0,IF($I2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I2-$D2:$D2&gt;0,IF($J2-$D2&gt;0,IF($J2/$D2:$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J2-$D2:$D2&gt;0,IF($K2-$D2&gt;0,IF($K2/$D2:$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K2-$D2:$D2&gt;0,IF($L2-$D2&gt;0,IF($L2/$D2:$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L2-$D2:$D2&gt;0,IF($M2-$D2&gt;0,IF($M2/$D2:$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L2&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <v>三期型，最高价在周三下午</v>
       </c>
       <c r="T2" s="19">
         <f t="shared" ref="T2:T20" si="1">IFERROR(MAX($E2:$P2),0)</f>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="U2" s="22">
         <f t="shared" ref="U2:U20" si="2">IFERROR(($T2-$D2)/$D2*100%,0)</f>
-        <v>0</v>
+        <v>4.3369565217391308</v>
       </c>
       <c r="V2" s="21" t="str">
         <f>IF(S2="递减型或三期四期型","数据不足，无法预测",IF(S2="递减型","快逃吧！回本没希望了",IF(S2="波动型",D2*0.9&amp;"~"&amp;D2*1.4,IF(LEFT(S2,3)="三期型",2*D2&amp;"~"&amp;6*D2,IF(LEFT(S2,3)="四期型",1.4*D2&amp;"~"&amp;2*D2)))))</f>
-        <v>数据不足，无法预测</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>184~552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1385,8 +840,18 @@
         <f t="shared" ref="R3:R20" si="3">IF(Q3&gt;=91%,"波型or4期",IF(Q3&gt;=85%,"3期or4期or递减型",IF(Q3&gt;=80%,"3期or4期",IF(Q3&gt;=60%,"波形or4期",IF(Q3&lt;60%,"接近4期")))))</f>
         <v>接近4期</v>
       </c>
-      <c r="S3" s="18" t="str">
-        <f>IFERROR(IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$H3/$D3&gt;=1.4,$I3/$D3&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H3-$G3&gt;0,$I3-$H3&gt;0,$J3-$I3&gt;0,$K3-$J3&gt;0,$L3-$K3&gt;0),IF($H3-基础数据!$D3:$D3&gt;0,IF($I3-$D3&gt;0,IF($I3/基础数据!$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I3-基础数据!$D3:$D3&gt;0,IF($J3-$D3&gt;0,IF($J3/基础数据!$D3:$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J3-基础数据!$D3:$D3&gt;0,IF($K3-$D3&gt;0,IF($K3/基础数据!$D3:$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K3-基础数据!$D3:$D3&gt;0,IF($L3-$D3&gt;0,IF($L3/基础数据!$D3:$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L3-基础数据!$D3:$D3&gt;0,IF($M3-$D3&gt;0,IF($M3/基础数据!$D3:$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L3&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S3" s="18" t="str" cm="1">
+        <f t="array" ref="S3">IFERROR(
+    IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$H3/$D3&gt;=1.4,$I3/$D3&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F3-E3&gt;0,G3-F3&gt;0,$H3-$G3&gt;0,$I3-$H3&gt;0,$J3-$I3&gt;0,$K3-$J3&gt;0,$L3-$K3&gt;0),
+    IF($F3-$D3:$D3&gt;0,IF($G3-$D3&gt;0,IF($G3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G3-$D3:$D3&gt;0,IF($H3-$D3&gt;0,IF($H3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H3-$D3:$D3&gt;0,IF($I3-$D3&gt;0,IF($I3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I3-$D3:$D3&gt;0,IF($J3-$D3&gt;0,IF($J3/$D3:$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J3-$D3:$D3&gt;0,IF($K3-$D3&gt;0,IF($K3/$D3:$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K3-$D3:$D3&gt;0,IF($L3-$D3&gt;0,IF($L3/$D3:$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L3-$D3:$D3&gt;0,IF($M3-$D3&gt;0,IF($M3/$D3:$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L3&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T3" s="19">
@@ -1402,7 +867,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1427,8 +892,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S4" s="18" t="str">
-        <f>IFERROR(IF($E4&gt;$D4,IF(OR($E4/$D4&gt;=1.4,$F4/$D4&gt;=1.4,$H4/$D4&gt;=1.4,$I4/$D4&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H4-$G4&gt;0,$I4-$H4&gt;0,$J4-$I4&gt;0,$K4-$J4&gt;0,$L4-$K4&gt;0),IF($H4-基础数据!$D4:$D4&gt;0,IF($I4-$D4&gt;0,IF($I4/基础数据!$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I4-基础数据!$D4:$D4&gt;0,IF($J4-$D4&gt;0,IF($J4/基础数据!$D4:$D4&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J4-基础数据!$D4:$D4&gt;0,IF($K4-$D4&gt;0,IF($K4/基础数据!$D4:$D4&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K4-基础数据!$D4:$D4&gt;0,IF($L4-$D4&gt;0,IF($L4/基础数据!$D4:$D4&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L4-基础数据!$D4:$D4&gt;0,IF($M4-$D4&gt;0,IF($M4/基础数据!$D4:$D4&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L4&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S4" s="18" t="str" cm="1">
+        <f t="array" ref="S4">IFERROR(
+    IF($E4&gt;$D4,IF(OR($E4/$D4&gt;=1.4,$F4/$D4&gt;=1.4,$H4/$D4&gt;=1.4,$I4/$D4&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F4-E4&gt;0,G4-F4&gt;0,$H4-$G4&gt;0,$I4-$H4&gt;0,$J4-$I4&gt;0,$K4-$J4&gt;0,$L4-$K4&gt;0),
+    IF($F4-$D4:$D4&gt;0,IF($G4-$D4&gt;0,IF($G4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G4-$D4:$D4&gt;0,IF($H4-$D4&gt;0,IF($H4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H4-$D4:$D4&gt;0,IF($I4-$D4&gt;0,IF($I4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I4-$D4:$D4&gt;0,IF($J4-$D4&gt;0,IF($J4/$D4:$D4&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J4-$D4:$D4&gt;0,IF($K4-$D4&gt;0,IF($K4/$D4:$D4&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K4-$D4:$D4&gt;0,IF($L4-$D4&gt;0,IF($L4/$D4:$D4&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L4-$D4:$D4&gt;0,IF($M4-$D4&gt;0,IF($M4/$D4:$D4&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L4&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T4" s="19">
@@ -1444,7 +919,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1469,8 +944,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S5" s="18" t="str">
-        <f>IFERROR(IF($E5&gt;$D5,IF(OR($E5/$D5&gt;=1.4,$F5/$D5&gt;=1.4,$H5/$D5&gt;=1.4,$I5/$D5&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H5-$G5&gt;0,$I5-$H5&gt;0,$J5-$I5&gt;0,$K5-$J5&gt;0,$L5-$K5&gt;0),IF($H5-基础数据!$D5:$D5&gt;0,IF($I5-$D5&gt;0,IF($I5/基础数据!$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I5-基础数据!$D5:$D5&gt;0,IF($J5-$D5&gt;0,IF($J5/基础数据!$D5:$D5&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J5-基础数据!$D5:$D5&gt;0,IF($K5-$D5&gt;0,IF($K5/基础数据!$D5:$D5&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K5-基础数据!$D5:$D5&gt;0,IF($L5-$D5&gt;0,IF($L5/基础数据!$D5:$D5&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L5-基础数据!$D5:$D5&gt;0,IF($M5-$D5&gt;0,IF($M5/基础数据!$D5:$D5&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L5&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S5" s="18" t="str" cm="1">
+        <f t="array" ref="S5">IFERROR(
+    IF($E5&gt;$D5,IF(OR($E5/$D5&gt;=1.4,$F5/$D5&gt;=1.4,$H5/$D5&gt;=1.4,$I5/$D5&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F5-E5&gt;0,G5-F5&gt;0,$H5-$G5&gt;0,$I5-$H5&gt;0,$J5-$I5&gt;0,$K5-$J5&gt;0,$L5-$K5&gt;0),
+    IF($F5-$D5:$D5&gt;0,IF($G5-$D5&gt;0,IF($G5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G5-$D5:$D5&gt;0,IF($H5-$D5&gt;0,IF($H5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H5-$D5:$D5&gt;0,IF($I5-$D5&gt;0,IF($I5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I5-$D5:$D5&gt;0,IF($J5-$D5&gt;0,IF($J5/$D5:$D5&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J5-$D5:$D5&gt;0,IF($K5-$D5&gt;0,IF($K5/$D5:$D5&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K5-$D5:$D5&gt;0,IF($L5-$D5&gt;0,IF($L5/$D5:$D5&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L5-$D5:$D5&gt;0,IF($M5-$D5&gt;0,IF($M5/$D5:$D5&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L5&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T5" s="19">
@@ -1486,7 +971,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1511,8 +996,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S6" s="18" t="str">
-        <f>IFERROR(IF($E6&gt;$D6,IF(OR($E6/$D6&gt;=1.4,$F6/$D6&gt;=1.4,$H6/$D6&gt;=1.4,$I6/$D6&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H6-$G6&gt;0,$I6-$H6&gt;0,$J6-$I6&gt;0,$K6-$J6&gt;0,$L6-$K6&gt;0),IF($H6-基础数据!$D6:$D6&gt;0,IF($I6-$D6&gt;0,IF($I6/基础数据!$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I6-基础数据!$D6:$D6&gt;0,IF($J6-$D6&gt;0,IF($J6/基础数据!$D6:$D6&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J6-基础数据!$D6:$D6&gt;0,IF($K6-$D6&gt;0,IF($K6/基础数据!$D6:$D6&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K6-基础数据!$D6:$D6&gt;0,IF($L6-$D6&gt;0,IF($L6/基础数据!$D6:$D6&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L6-基础数据!$D6:$D6&gt;0,IF($M6-$D6&gt;0,IF($M6/基础数据!$D6:$D6&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L6&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S6" s="18" t="str" cm="1">
+        <f t="array" ref="S6">IFERROR(
+    IF($E6&gt;$D6,IF(OR($E6/$D6&gt;=1.4,$F6/$D6&gt;=1.4,$H6/$D6&gt;=1.4,$I6/$D6&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F6-E6&gt;0,G6-F6&gt;0,$H6-$G6&gt;0,$I6-$H6&gt;0,$J6-$I6&gt;0,$K6-$J6&gt;0,$L6-$K6&gt;0),
+    IF($F6-$D6:$D6&gt;0,IF($G6-$D6&gt;0,IF($G6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G6-$D6:$D6&gt;0,IF($H6-$D6&gt;0,IF($H6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H6-$D6:$D6&gt;0,IF($I6-$D6&gt;0,IF($I6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I6-$D6:$D6&gt;0,IF($J6-$D6&gt;0,IF($J6/$D6:$D6&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J6-$D6:$D6&gt;0,IF($K6-$D6&gt;0,IF($K6/$D6:$D6&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K6-$D6:$D6&gt;0,IF($L6-$D6&gt;0,IF($L6/$D6:$D6&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L6-$D6:$D6&gt;0,IF($M6-$D6&gt;0,IF($M6/$D6:$D6&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L6&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T6" s="19">
@@ -1528,7 +1023,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1553,8 +1048,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S7" s="18" t="str">
-        <f>IFERROR(IF($E7&gt;$D7,IF(OR($E7/$D7&gt;=1.4,$F7/$D7&gt;=1.4,$H7/$D7&gt;=1.4,$I7/$D7&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H7-$G7&gt;0,$I7-$H7&gt;0,$J7-$I7&gt;0,$K7-$J7&gt;0,$L7-$K7&gt;0),IF($H7-基础数据!$D7:$D7&gt;0,IF($I7-$D7&gt;0,IF($I7/基础数据!$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I7-基础数据!$D7:$D7&gt;0,IF($J7-$D7&gt;0,IF($J7/基础数据!$D7:$D7&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J7-基础数据!$D7:$D7&gt;0,IF($K7-$D7&gt;0,IF($K7/基础数据!$D7:$D7&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K7-基础数据!$D7:$D7&gt;0,IF($L7-$D7&gt;0,IF($L7/基础数据!$D7:$D7&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L7-基础数据!$D7:$D7&gt;0,IF($M7-$D7&gt;0,IF($M7/基础数据!$D7:$D7&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L7&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S7" s="18" t="str" cm="1">
+        <f t="array" ref="S7">IFERROR(
+    IF($E7&gt;$D7,IF(OR($E7/$D7&gt;=1.4,$F7/$D7&gt;=1.4,$H7/$D7&gt;=1.4,$I7/$D7&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F7-E7&gt;0,G7-F7&gt;0,$H7-$G7&gt;0,$I7-$H7&gt;0,$J7-$I7&gt;0,$K7-$J7&gt;0,$L7-$K7&gt;0),
+    IF($F7-$D7:$D7&gt;0,IF($G7-$D7&gt;0,IF($G7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G7-$D7:$D7&gt;0,IF($H7-$D7&gt;0,IF($H7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H7-$D7:$D7&gt;0,IF($I7-$D7&gt;0,IF($I7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I7-$D7:$D7&gt;0,IF($J7-$D7&gt;0,IF($J7/$D7:$D7&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J7-$D7:$D7&gt;0,IF($K7-$D7&gt;0,IF($K7/$D7:$D7&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K7-$D7:$D7&gt;0,IF($L7-$D7&gt;0,IF($L7/$D7:$D7&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L7-$D7:$D7&gt;0,IF($M7-$D7&gt;0,IF($M7/$D7:$D7&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L7&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T7" s="19">
@@ -1570,7 +1075,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1595,8 +1100,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S8" s="18" t="str">
-        <f>IFERROR(IF($E8&gt;$D8,IF(OR($E8/$D8&gt;=1.4,$F8/$D8&gt;=1.4,$H8/$D8&gt;=1.4,$I8/$D8&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H8-$G8&gt;0,$I8-$H8&gt;0,$J8-$I8&gt;0,$K8-$J8&gt;0,$L8-$K8&gt;0),IF($H8-基础数据!$D8:$D8&gt;0,IF($I8-$D8&gt;0,IF($I8/基础数据!$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I8-基础数据!$D8:$D8&gt;0,IF($J8-$D8&gt;0,IF($J8/基础数据!$D8:$D8&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J8-基础数据!$D8:$D8&gt;0,IF($K8-$D8&gt;0,IF($K8/基础数据!$D8:$D8&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K8-基础数据!$D8:$D8&gt;0,IF($L8-$D8&gt;0,IF($L8/基础数据!$D8:$D8&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L8-基础数据!$D8:$D8&gt;0,IF($M8-$D8&gt;0,IF($M8/基础数据!$D8:$D8&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L8&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S8" s="18" t="str" cm="1">
+        <f t="array" ref="S8">IFERROR(
+    IF($E8&gt;$D8,IF(OR($E8/$D8&gt;=1.4,$F8/$D8&gt;=1.4,$H8/$D8&gt;=1.4,$I8/$D8&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F8-E8&gt;0,G8-F8&gt;0,$H8-$G8&gt;0,$I8-$H8&gt;0,$J8-$I8&gt;0,$K8-$J8&gt;0,$L8-$K8&gt;0),
+    IF($F8-$D8:$D8&gt;0,IF($G8-$D8&gt;0,IF($G8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G8-$D8:$D8&gt;0,IF($H8-$D8&gt;0,IF($H8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H8-$D8:$D8&gt;0,IF($I8-$D8&gt;0,IF($I8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I8-$D8:$D8&gt;0,IF($J8-$D8&gt;0,IF($J8/$D8:$D8&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J8-$D8:$D8&gt;0,IF($K8-$D8&gt;0,IF($K8/$D8:$D8&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K8-$D8:$D8&gt;0,IF($L8-$D8&gt;0,IF($L8/$D8:$D8&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L8-$D8:$D8&gt;0,IF($M8-$D8&gt;0,IF($M8/$D8:$D8&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L8&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T8" s="19">
@@ -1612,7 +1127,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1637,8 +1152,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S9" s="18" t="str">
-        <f>IFERROR(IF($E9&gt;$D9,IF(OR($E9/$D9&gt;=1.4,$F9/$D9&gt;=1.4,$H9/$D9&gt;=1.4,$I9/$D9&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H9-$G9&gt;0,$I9-$H9&gt;0,$J9-$I9&gt;0,$K9-$J9&gt;0,$L9-$K9&gt;0),IF($H9-基础数据!$D9:$D9&gt;0,IF($I9-$D9&gt;0,IF($I9/基础数据!$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I9-基础数据!$D9:$D9&gt;0,IF($J9-$D9&gt;0,IF($J9/基础数据!$D9:$D9&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J9-基础数据!$D9:$D9&gt;0,IF($K9-$D9&gt;0,IF($K9/基础数据!$D9:$D9&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K9-基础数据!$D9:$D9&gt;0,IF($L9-$D9&gt;0,IF($L9/基础数据!$D9:$D9&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L9-基础数据!$D9:$D9&gt;0,IF($M9-$D9&gt;0,IF($M9/基础数据!$D9:$D9&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L9&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S9" s="18" t="str" cm="1">
+        <f t="array" ref="S9">IFERROR(
+    IF($E9&gt;$D9,IF(OR($E9/$D9&gt;=1.4,$F9/$D9&gt;=1.4,$H9/$D9&gt;=1.4,$I9/$D9&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F9-E9&gt;0,G9-F9&gt;0,$H9-$G9&gt;0,$I9-$H9&gt;0,$J9-$I9&gt;0,$K9-$J9&gt;0,$L9-$K9&gt;0),
+    IF($F9-$D9:$D9&gt;0,IF($G9-$D9&gt;0,IF($G9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G9-$D9:$D9&gt;0,IF($H9-$D9&gt;0,IF($H9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H9-$D9:$D9&gt;0,IF($I9-$D9&gt;0,IF($I9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I9-$D9:$D9&gt;0,IF($J9-$D9&gt;0,IF($J9/$D9:$D9&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J9-$D9:$D9&gt;0,IF($K9-$D9&gt;0,IF($K9/$D9:$D9&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K9-$D9:$D9&gt;0,IF($L9-$D9&gt;0,IF($L9/$D9:$D9&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L9-$D9:$D9&gt;0,IF($M9-$D9&gt;0,IF($M9/$D9:$D9&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L9&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T9" s="19">
@@ -1654,7 +1179,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -1679,8 +1204,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S10" s="18" t="str">
-        <f>IFERROR(IF($E10&gt;$D10,IF(OR($E10/$D10&gt;=1.4,$F10/$D10&gt;=1.4,$H10/$D10&gt;=1.4,$I10/$D10&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H10-$G10&gt;0,$I10-$H10&gt;0,$J10-$I10&gt;0,$K10-$J10&gt;0,$L10-$K10&gt;0),IF($H10-基础数据!$D10:$D10&gt;0,IF($I10-$D10&gt;0,IF($I10/基础数据!$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I10-基础数据!$D10:$D10&gt;0,IF($J10-$D10&gt;0,IF($J10/基础数据!$D10:$D10&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J10-基础数据!$D10:$D10&gt;0,IF($K10-$D10&gt;0,IF($K10/基础数据!$D10:$D10&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K10-基础数据!$D10:$D10&gt;0,IF($L10-$D10&gt;0,IF($L10/基础数据!$D10:$D10&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L10-基础数据!$D10:$D10&gt;0,IF($M10-$D10&gt;0,IF($M10/基础数据!$D10:$D10&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L10&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S10" s="18" t="str" cm="1">
+        <f t="array" ref="S10">IFERROR(
+    IF($E10&gt;$D10,IF(OR($E10/$D10&gt;=1.4,$F10/$D10&gt;=1.4,$H10/$D10&gt;=1.4,$I10/$D10&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F10-E10&gt;0,G10-F10&gt;0,$H10-$G10&gt;0,$I10-$H10&gt;0,$J10-$I10&gt;0,$K10-$J10&gt;0,$L10-$K10&gt;0),
+    IF($F10-$D10:$D10&gt;0,IF($G10-$D10&gt;0,IF($G10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G10-$D10:$D10&gt;0,IF($H10-$D10&gt;0,IF($H10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H10-$D10:$D10&gt;0,IF($I10-$D10&gt;0,IF($I10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I10-$D10:$D10&gt;0,IF($J10-$D10&gt;0,IF($J10/$D10:$D10&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J10-$D10:$D10&gt;0,IF($K10-$D10&gt;0,IF($K10/$D10:$D10&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K10-$D10:$D10&gt;0,IF($L10-$D10&gt;0,IF($L10/$D10:$D10&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L10-$D10:$D10&gt;0,IF($M10-$D10&gt;0,IF($M10/$D10:$D10&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L10&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T10" s="19">
@@ -1696,7 +1231,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1721,8 +1256,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S11" s="18" t="str">
-        <f>IFERROR(IF($E11&gt;$D11,IF(OR($E11/$D11&gt;=1.4,$F11/$D11&gt;=1.4,$H11/$D11&gt;=1.4,$I11/$D11&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H11-$G11&gt;0,$I11-$H11&gt;0,$J11-$I11&gt;0,$K11-$J11&gt;0,$L11-$K11&gt;0),IF($H11-基础数据!$D11:$D11&gt;0,IF($I11-$D11&gt;0,IF($I11/基础数据!$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I11-基础数据!$D11:$D11&gt;0,IF($J11-$D11&gt;0,IF($J11/基础数据!$D11:$D11&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J11-基础数据!$D11:$D11&gt;0,IF($K11-$D11&gt;0,IF($K11/基础数据!$D11:$D11&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K11-基础数据!$D11:$D11&gt;0,IF($L11-$D11&gt;0,IF($L11/基础数据!$D11:$D11&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L11-基础数据!$D11:$D11&gt;0,IF($M11-$D11&gt;0,IF($M11/基础数据!$D11:$D11&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L11&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S11" s="18" t="str" cm="1">
+        <f t="array" ref="S11">IFERROR(
+    IF($E11&gt;$D11,IF(OR($E11/$D11&gt;=1.4,$F11/$D11&gt;=1.4,$H11/$D11&gt;=1.4,$I11/$D11&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F11-E11&gt;0,G11-F11&gt;0,$H11-$G11&gt;0,$I11-$H11&gt;0,$J11-$I11&gt;0,$K11-$J11&gt;0,$L11-$K11&gt;0),
+    IF($F11-$D11:$D11&gt;0,IF($G11-$D11&gt;0,IF($G11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G11-$D11:$D11&gt;0,IF($H11-$D11&gt;0,IF($H11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H11-$D11:$D11&gt;0,IF($I11-$D11&gt;0,IF($I11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I11-$D11:$D11&gt;0,IF($J11-$D11&gt;0,IF($J11/$D11:$D11&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J11-$D11:$D11&gt;0,IF($K11-$D11&gt;0,IF($K11/$D11:$D11&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K11-$D11:$D11&gt;0,IF($L11-$D11&gt;0,IF($L11/$D11:$D11&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L11-$D11:$D11&gt;0,IF($M11-$D11&gt;0,IF($M11/$D11:$D11&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L11&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T11" s="19">
@@ -1738,7 +1283,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1763,8 +1308,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S12" s="18" t="str">
-        <f>IFERROR(IF($E12&gt;$D12,IF(OR($E12/$D12&gt;=1.4,$F12/$D12&gt;=1.4,$H12/$D12&gt;=1.4,$I12/$D12&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H12-$G12&gt;0,$I12-$H12&gt;0,$J12-$I12&gt;0,$K12-$J12&gt;0,$L12-$K12&gt;0),IF($H12-基础数据!$D12:$D12&gt;0,IF($I12-$D12&gt;0,IF($I12/基础数据!$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I12-基础数据!$D12:$D12&gt;0,IF($J12-$D12&gt;0,IF($J12/基础数据!$D12:$D12&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J12-基础数据!$D12:$D12&gt;0,IF($K12-$D12&gt;0,IF($K12/基础数据!$D12:$D12&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K12-基础数据!$D12:$D12&gt;0,IF($L12-$D12&gt;0,IF($L12/基础数据!$D12:$D12&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L12-基础数据!$D12:$D12&gt;0,IF($M12-$D12&gt;0,IF($M12/基础数据!$D12:$D12&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L12&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S12" s="18" t="str" cm="1">
+        <f t="array" ref="S12">IFERROR(
+    IF($E12&gt;$D12,IF(OR($E12/$D12&gt;=1.4,$F12/$D12&gt;=1.4,$H12/$D12&gt;=1.4,$I12/$D12&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F12-E12&gt;0,G12-F12&gt;0,$H12-$G12&gt;0,$I12-$H12&gt;0,$J12-$I12&gt;0,$K12-$J12&gt;0,$L12-$K12&gt;0),
+    IF($F12-$D12:$D12&gt;0,IF($G12-$D12&gt;0,IF($G12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G12-$D12:$D12&gt;0,IF($H12-$D12&gt;0,IF($H12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H12-$D12:$D12&gt;0,IF($I12-$D12&gt;0,IF($I12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I12-$D12:$D12&gt;0,IF($J12-$D12&gt;0,IF($J12/$D12:$D12&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J12-$D12:$D12&gt;0,IF($K12-$D12&gt;0,IF($K12/$D12:$D12&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K12-$D12:$D12&gt;0,IF($L12-$D12&gt;0,IF($L12/$D12:$D12&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L12-$D12:$D12&gt;0,IF($M12-$D12&gt;0,IF($M12/$D12:$D12&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L12&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T12" s="19">
@@ -1780,7 +1335,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1805,8 +1360,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S13" s="18" t="str">
-        <f>IFERROR(IF($E13&gt;$D13,IF(OR($E13/$D13&gt;=1.4,$F13/$D13&gt;=1.4,$H13/$D13&gt;=1.4,$I13/$D13&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H13-$G13&gt;0,$I13-$H13&gt;0,$J13-$I13&gt;0,$K13-$J13&gt;0,$L13-$K13&gt;0),IF($H13-基础数据!$D13:$D13&gt;0,IF($I13-$D13&gt;0,IF($I13/基础数据!$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I13-基础数据!$D13:$D13&gt;0,IF($J13-$D13&gt;0,IF($J13/基础数据!$D13:$D13&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J13-基础数据!$D13:$D13&gt;0,IF($K13-$D13&gt;0,IF($K13/基础数据!$D13:$D13&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K13-基础数据!$D13:$D13&gt;0,IF($L13-$D13&gt;0,IF($L13/基础数据!$D13:$D13&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L13-基础数据!$D13:$D13&gt;0,IF($M13-$D13&gt;0,IF($M13/基础数据!$D13:$D13&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L13&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S13" s="18" t="str" cm="1">
+        <f t="array" ref="S13">IFERROR(
+    IF($E13&gt;$D13,IF(OR($E13/$D13&gt;=1.4,$F13/$D13&gt;=1.4,$H13/$D13&gt;=1.4,$I13/$D13&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F13-E13&gt;0,G13-F13&gt;0,$H13-$G13&gt;0,$I13-$H13&gt;0,$J13-$I13&gt;0,$K13-$J13&gt;0,$L13-$K13&gt;0),
+    IF($F13-$D13:$D13&gt;0,IF($G13-$D13&gt;0,IF($G13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G13-$D13:$D13&gt;0,IF($H13-$D13&gt;0,IF($H13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H13-$D13:$D13&gt;0,IF($I13-$D13&gt;0,IF($I13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I13-$D13:$D13&gt;0,IF($J13-$D13&gt;0,IF($J13/$D13:$D13&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J13-$D13:$D13&gt;0,IF($K13-$D13&gt;0,IF($K13/$D13:$D13&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K13-$D13:$D13&gt;0,IF($L13-$D13&gt;0,IF($L13/$D13:$D13&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L13-$D13:$D13&gt;0,IF($M13-$D13&gt;0,IF($M13/$D13:$D13&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L13&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T13" s="19">
@@ -1822,7 +1387,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1847,8 +1412,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S14" s="18" t="str">
-        <f>IFERROR(IF($E14&gt;$D14,IF(OR($E14/$D14&gt;=1.4,$F14/$D14&gt;=1.4,$H14/$D14&gt;=1.4,$I14/$D14&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H14-$G14&gt;0,$I14-$H14&gt;0,$J14-$I14&gt;0,$K14-$J14&gt;0,$L14-$K14&gt;0),IF($H14-基础数据!$D14:$D14&gt;0,IF($I14-$D14&gt;0,IF($I14/基础数据!$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I14-基础数据!$D14:$D14&gt;0,IF($J14-$D14&gt;0,IF($J14/基础数据!$D14:$D14&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J14-基础数据!$D14:$D14&gt;0,IF($K14-$D14&gt;0,IF($K14/基础数据!$D14:$D14&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K14-基础数据!$D14:$D14&gt;0,IF($L14-$D14&gt;0,IF($L14/基础数据!$D14:$D14&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L14-基础数据!$D14:$D14&gt;0,IF($M14-$D14&gt;0,IF($M14/基础数据!$D14:$D14&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L14&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S14" s="18" t="str" cm="1">
+        <f t="array" ref="S14">IFERROR(
+    IF($E14&gt;$D14,IF(OR($E14/$D14&gt;=1.4,$F14/$D14&gt;=1.4,$H14/$D14&gt;=1.4,$I14/$D14&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F14-E14&gt;0,G14-F14&gt;0,$H14-$G14&gt;0,$I14-$H14&gt;0,$J14-$I14&gt;0,$K14-$J14&gt;0,$L14-$K14&gt;0),
+    IF($F14-$D14:$D14&gt;0,IF($G14-$D14&gt;0,IF($G14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G14-$D14:$D14&gt;0,IF($H14-$D14&gt;0,IF($H14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H14-$D14:$D14&gt;0,IF($I14-$D14&gt;0,IF($I14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I14-$D14:$D14&gt;0,IF($J14-$D14&gt;0,IF($J14/$D14:$D14&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J14-$D14:$D14&gt;0,IF($K14-$D14&gt;0,IF($K14/$D14:$D14&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K14-$D14:$D14&gt;0,IF($L14-$D14&gt;0,IF($L14/$D14:$D14&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L14-$D14:$D14&gt;0,IF($M14-$D14&gt;0,IF($M14/$D14:$D14&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L14&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T14" s="19">
@@ -1864,7 +1439,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1889,8 +1464,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S15" s="18" t="str">
-        <f>IFERROR(IF($E15&gt;$D15,IF(OR($E15/$D15&gt;=1.4,$F15/$D15&gt;=1.4,$H15/$D15&gt;=1.4,$I15/$D15&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H15-$G15&gt;0,$I15-$H15&gt;0,$J15-$I15&gt;0,$K15-$J15&gt;0,$L15-$K15&gt;0),IF($H15-基础数据!$D15:$D15&gt;0,IF($I15-$D15&gt;0,IF($I15/基础数据!$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I15-基础数据!$D15:$D15&gt;0,IF($J15-$D15&gt;0,IF($J15/基础数据!$D15:$D15&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J15-基础数据!$D15:$D15&gt;0,IF($K15-$D15&gt;0,IF($K15/基础数据!$D15:$D15&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K15-基础数据!$D15:$D15&gt;0,IF($L15-$D15&gt;0,IF($L15/基础数据!$D15:$D15&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L15-基础数据!$D15:$D15&gt;0,IF($M15-$D15&gt;0,IF($M15/基础数据!$D15:$D15&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L15&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S15" s="18" t="str" cm="1">
+        <f t="array" ref="S15">IFERROR(
+    IF($E15&gt;$D15,IF(OR($E15/$D15&gt;=1.4,$F15/$D15&gt;=1.4,$H15/$D15&gt;=1.4,$I15/$D15&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F15-E15&gt;0,G15-F15&gt;0,$H15-$G15&gt;0,$I15-$H15&gt;0,$J15-$I15&gt;0,$K15-$J15&gt;0,$L15-$K15&gt;0),
+    IF($F15-$D15:$D15&gt;0,IF($G15-$D15&gt;0,IF($G15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G15-$D15:$D15&gt;0,IF($H15-$D15&gt;0,IF($H15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H15-$D15:$D15&gt;0,IF($I15-$D15&gt;0,IF($I15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I15-$D15:$D15&gt;0,IF($J15-$D15&gt;0,IF($J15/$D15:$D15&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J15-$D15:$D15&gt;0,IF($K15-$D15&gt;0,IF($K15/$D15:$D15&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K15-$D15:$D15&gt;0,IF($L15-$D15&gt;0,IF($L15/$D15:$D15&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L15-$D15:$D15&gt;0,IF($M15-$D15&gt;0,IF($M15/$D15:$D15&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L15&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T15" s="19">
@@ -1906,7 +1491,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1931,8 +1516,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S16" s="18" t="str">
-        <f>IFERROR(IF($E16&gt;$D16,IF(OR($E16/$D16&gt;=1.4,$F16/$D16&gt;=1.4,$H16/$D16&gt;=1.4,$I16/$D16&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H16-$G16&gt;0,$I16-$H16&gt;0,$J16-$I16&gt;0,$K16-$J16&gt;0,$L16-$K16&gt;0),IF($H16-基础数据!$D16:$D16&gt;0,IF($I16-$D16&gt;0,IF($I16/基础数据!$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I16-基础数据!$D16:$D16&gt;0,IF($J16-$D16&gt;0,IF($J16/基础数据!$D16:$D16&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J16-基础数据!$D16:$D16&gt;0,IF($K16-$D16&gt;0,IF($K16/基础数据!$D16:$D16&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K16-基础数据!$D16:$D16&gt;0,IF($L16-$D16&gt;0,IF($L16/基础数据!$D16:$D16&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L16-基础数据!$D16:$D16&gt;0,IF($M16-$D16&gt;0,IF($M16/基础数据!$D16:$D16&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L16&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S16" s="18" t="str" cm="1">
+        <f t="array" ref="S16">IFERROR(
+    IF($E16&gt;$D16,IF(OR($E16/$D16&gt;=1.4,$F16/$D16&gt;=1.4,$H16/$D16&gt;=1.4,$I16/$D16&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F16-E16&gt;0,G16-F16&gt;0,$H16-$G16&gt;0,$I16-$H16&gt;0,$J16-$I16&gt;0,$K16-$J16&gt;0,$L16-$K16&gt;0),
+    IF($F16-$D16:$D16&gt;0,IF($G16-$D16&gt;0,IF($G16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G16-$D16:$D16&gt;0,IF($H16-$D16&gt;0,IF($H16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H16-$D16:$D16&gt;0,IF($I16-$D16&gt;0,IF($I16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I16-$D16:$D16&gt;0,IF($J16-$D16&gt;0,IF($J16/$D16:$D16&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J16-$D16:$D16&gt;0,IF($K16-$D16&gt;0,IF($K16/$D16:$D16&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K16-$D16:$D16&gt;0,IF($L16-$D16&gt;0,IF($L16/$D16:$D16&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L16-$D16:$D16&gt;0,IF($M16-$D16&gt;0,IF($M16/$D16:$D16&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L16&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T16" s="19">
@@ -1948,7 +1543,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1973,8 +1568,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S17" s="18" t="str">
-        <f>IFERROR(IF($E17&gt;$D17,IF(OR($E17/$D17&gt;=1.4,$F17/$D17&gt;=1.4,$H17/$D17&gt;=1.4,$I17/$D17&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H17-$G17&gt;0,$I17-$H17&gt;0,$J17-$I17&gt;0,$K17-$J17&gt;0,$L17-$K17&gt;0),IF($H17-基础数据!$D17:$D17&gt;0,IF($I17-$D17&gt;0,IF($I17/基础数据!$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I17-基础数据!$D17:$D17&gt;0,IF($J17-$D17&gt;0,IF($J17/基础数据!$D17:$D17&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J17-基础数据!$D17:$D17&gt;0,IF($K17-$D17&gt;0,IF($K17/基础数据!$D17:$D17&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K17-基础数据!$D17:$D17&gt;0,IF($L17-$D17&gt;0,IF($L17/基础数据!$D17:$D17&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L17-基础数据!$D17:$D17&gt;0,IF($M17-$D17&gt;0,IF($M17/基础数据!$D17:$D17&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L17&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S17" s="18" t="str" cm="1">
+        <f t="array" ref="S17">IFERROR(
+    IF($E17&gt;$D17,IF(OR($E17/$D17&gt;=1.4,$F17/$D17&gt;=1.4,$H17/$D17&gt;=1.4,$I17/$D17&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F17-E17&gt;0,G17-F17&gt;0,$H17-$G17&gt;0,$I17-$H17&gt;0,$J17-$I17&gt;0,$K17-$J17&gt;0,$L17-$K17&gt;0),
+    IF($F17-$D17:$D17&gt;0,IF($G17-$D17&gt;0,IF($G17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G17-$D17:$D17&gt;0,IF($H17-$D17&gt;0,IF($H17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H17-$D17:$D17&gt;0,IF($I17-$D17&gt;0,IF($I17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I17-$D17:$D17&gt;0,IF($J17-$D17&gt;0,IF($J17/$D17:$D17&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J17-$D17:$D17&gt;0,IF($K17-$D17&gt;0,IF($K17/$D17:$D17&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K17-$D17:$D17&gt;0,IF($L17-$D17&gt;0,IF($L17/$D17:$D17&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L17-$D17:$D17&gt;0,IF($M17-$D17&gt;0,IF($M17/$D17:$D17&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L17&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T17" s="19">
@@ -1990,7 +1595,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -2015,8 +1620,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S18" s="18" t="str">
-        <f>IFERROR(IF($E18&gt;$D18,IF(OR($E18/$D18&gt;=1.4,$F18/$D18&gt;=1.4,$H18/$D18&gt;=1.4,$I18/$D18&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H18-$G18&gt;0,$I18-$H18&gt;0,$J18-$I18&gt;0,$K18-$J18&gt;0,$L18-$K18&gt;0),IF($H18-基础数据!$D18:$D18&gt;0,IF($I18-$D18&gt;0,IF($I18/基础数据!$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I18-基础数据!$D18:$D18&gt;0,IF($J18-$D18&gt;0,IF($J18/基础数据!$D18:$D18&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J18-基础数据!$D18:$D18&gt;0,IF($K18-$D18&gt;0,IF($K18/基础数据!$D18:$D18&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K18-基础数据!$D18:$D18&gt;0,IF($L18-$D18&gt;0,IF($L18/基础数据!$D18:$D18&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L18-基础数据!$D18:$D18&gt;0,IF($M18-$D18&gt;0,IF($M18/基础数据!$D18:$D18&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L18&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S18" s="18" t="str" cm="1">
+        <f t="array" ref="S18">IFERROR(
+    IF($E18&gt;$D18,IF(OR($E18/$D18&gt;=1.4,$F18/$D18&gt;=1.4,$H18/$D18&gt;=1.4,$I18/$D18&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F18-E18&gt;0,G18-F18&gt;0,$H18-$G18&gt;0,$I18-$H18&gt;0,$J18-$I18&gt;0,$K18-$J18&gt;0,$L18-$K18&gt;0),
+    IF($F18-$D18:$D18&gt;0,IF($G18-$D18&gt;0,IF($G18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G18-$D18:$D18&gt;0,IF($H18-$D18&gt;0,IF($H18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H18-$D18:$D18&gt;0,IF($I18-$D18&gt;0,IF($I18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I18-$D18:$D18&gt;0,IF($J18-$D18&gt;0,IF($J18/$D18:$D18&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J18-$D18:$D18&gt;0,IF($K18-$D18&gt;0,IF($K18/$D18:$D18&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K18-$D18:$D18&gt;0,IF($L18-$D18&gt;0,IF($L18/$D18:$D18&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L18-$D18:$D18&gt;0,IF($M18-$D18&gt;0,IF($M18/$D18:$D18&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L18&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T18" s="19">
@@ -2032,7 +1647,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2057,8 +1672,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S19" s="18" t="str">
-        <f>IFERROR(IF($E19&gt;$D19,IF(OR($E19/$D19&gt;=1.4,$F19/$D19&gt;=1.4,$H19/$D19&gt;=1.4,$I19/$D19&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H19-$G19&gt;0,$I19-$H19&gt;0,$J19-$I19&gt;0,$K19-$J19&gt;0,$L19-$K19&gt;0),IF($H19-基础数据!$D19:$D19&gt;0,IF($I19-$D19&gt;0,IF($I19/基础数据!$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I19-基础数据!$D19:$D19&gt;0,IF($J19-$D19&gt;0,IF($J19/基础数据!$D19:$D19&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J19-基础数据!$D19:$D19&gt;0,IF($K19-$D19&gt;0,IF($K19/基础数据!$D19:$D19&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K19-基础数据!$D19:$D19&gt;0,IF($L19-$D19&gt;0,IF($L19/基础数据!$D19:$D19&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L19-基础数据!$D19:$D19&gt;0,IF($M19-$D19&gt;0,IF($M19/基础数据!$D19:$D19&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L19&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S19" s="18" t="str" cm="1">
+        <f t="array" ref="S19">IFERROR(
+    IF($E19&gt;$D19,IF(OR($E19/$D19&gt;=1.4,$F19/$D19&gt;=1.4,$H19/$D19&gt;=1.4,$I19/$D19&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F19-E19&gt;0,G19-F19&gt;0,$H19-$G19&gt;0,$I19-$H19&gt;0,$J19-$I19&gt;0,$K19-$J19&gt;0,$L19-$K19&gt;0),
+    IF($F19-$D19:$D19&gt;0,IF($G19-$D19&gt;0,IF($G19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G19-$D19:$D19&gt;0,IF($H19-$D19&gt;0,IF($H19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H19-$D19:$D19&gt;0,IF($I19-$D19&gt;0,IF($I19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I19-$D19:$D19&gt;0,IF($J19-$D19&gt;0,IF($J19/$D19:$D19&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J19-$D19:$D19&gt;0,IF($K19-$D19&gt;0,IF($K19/$D19:$D19&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K19-$D19:$D19&gt;0,IF($L19-$D19&gt;0,IF($L19/$D19:$D19&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L19-$D19:$D19&gt;0,IF($M19-$D19&gt;0,IF($M19/$D19:$D19&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L19&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T19" s="19">
@@ -2074,7 +1699,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -2099,8 +1724,18 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S20" s="18" t="str">
-        <f>IFERROR(IF($E20&gt;$D20,IF(OR($E20/$D20&gt;=1.4,$F20/$D20&gt;=1.4,$H20/$D20&gt;=1.4,$I20/$D20&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H20-$G20&gt;0,$I20-$H20&gt;0,$J20-$I20&gt;0,$K20-$J20&gt;0,$L20-$K20&gt;0),IF($H20-基础数据!$D20:$D20&gt;0,IF($I20-$D20&gt;0,IF($I20/基础数据!$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I20-基础数据!$D20:$D20&gt;0,IF($J20-$D20&gt;0,IF($J20/基础数据!$D20:$D20&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J20-基础数据!$D20:$D20&gt;0,IF($K20-$D20&gt;0,IF($K20/基础数据!$D20:$D20&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K20-基础数据!$D20:$D20&gt;0,IF($L20-$D20&gt;0,IF($L20/基础数据!$D20:$D20&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L20-基础数据!$D20:$D20&gt;0,IF($M20-$D20&gt;0,IF($M20/基础数据!$D20:$D20&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L20&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S20" s="18" t="str" cm="1">
+        <f t="array" ref="S20">IFERROR(
+    IF($E20&gt;$D20,IF(OR($E20/$D20&gt;=1.4,$F20/$D20&gt;=1.4,$H20/$D20&gt;=1.4,$I20/$D20&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F20-E20&gt;0,G20-F20&gt;0,$H20-$G20&gt;0,$I20-$H20&gt;0,$J20-$I20&gt;0,$K20-$J20&gt;0,$L20-$K20&gt;0),
+    IF($F20-$D20:$D20&gt;0,IF($G20-$D20&gt;0,IF($G20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G20-$D20:$D20&gt;0,IF($H20-$D20&gt;0,IF($H20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H20-$D20:$D20&gt;0,IF($I20-$D20&gt;0,IF($I20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I20-$D20:$D20&gt;0,IF($J20-$D20&gt;0,IF($J20/$D20:$D20&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J20-$D20:$D20&gt;0,IF($K20-$D20&gt;0,IF($K20/$D20:$D20&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K20-$D20:$D20&gt;0,IF($L20-$D20&gt;0,IF($L20/$D20:$D20&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L20-$D20:$D20&gt;0,IF($M20-$D20&gt;0,IF($M20/$D20:$D20&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L20&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T20" s="19">
@@ -2116,7 +1751,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="Q21" s="17">
@@ -2127,8 +1762,18 @@
         <f t="shared" ref="R21:R33" si="6">IF(Q21&gt;=91%,"波型or4期",IF(Q21&gt;=85%,"3期or4期or递减型",IF(Q21&gt;=80%,"3期or4期",IF(Q21&gt;=60%,"波形or4期",IF(Q21&lt;60%,"接近4期")))))</f>
         <v>接近4期</v>
       </c>
-      <c r="S21" s="18" t="str">
-        <f>IFERROR(IF($E21&gt;$D21,IF(OR($E21/$D21&gt;=1.4,$F21/$D21&gt;=1.4,$H21/$D21&gt;=1.4,$I21/$D21&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H21-$G21&gt;0,$I21-$H21&gt;0,$J21-$I21&gt;0,$K21-$J21&gt;0,$L21-$K21&gt;0),IF($H21-基础数据!$D21:$D21&gt;0,IF($I21-$D21&gt;0,IF($I21/基础数据!$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I21-基础数据!$D21:$D21&gt;0,IF($J21-$D21&gt;0,IF($J21/基础数据!$D21:$D21&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J21-基础数据!$D21:$D21&gt;0,IF($K21-$D21&gt;0,IF($K21/基础数据!$D21:$D21&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K21-基础数据!$D21:$D21&gt;0,IF($L21-$D21&gt;0,IF($L21/基础数据!$D21:$D21&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L21-基础数据!$D21:$D21&gt;0,IF($M21-$D21&gt;0,IF($M21/基础数据!$D21:$D21&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L21&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S21" s="18" t="str" cm="1">
+        <f t="array" ref="S21">IFERROR(
+    IF($E21&gt;$D21,IF(OR($E21/$D21&gt;=1.4,$F21/$D21&gt;=1.4,$H21/$D21&gt;=1.4,$I21/$D21&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F21-E21&gt;0,G21-F21&gt;0,$H21-$G21&gt;0,$I21-$H21&gt;0,$J21-$I21&gt;0,$K21-$J21&gt;0,$L21-$K21&gt;0),
+    IF($F21-$D21:$D21&gt;0,IF($G21-$D21&gt;0,IF($G21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G21-$D21:$D21&gt;0,IF($H21-$D21&gt;0,IF($H21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H21-$D21:$D21&gt;0,IF($I21-$D21&gt;0,IF($I21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I21-$D21:$D21&gt;0,IF($J21-$D21&gt;0,IF($J21/$D21:$D21&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J21-$D21:$D21&gt;0,IF($K21-$D21&gt;0,IF($K21/$D21:$D21&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K21-$D21:$D21&gt;0,IF($L21-$D21&gt;0,IF($L21/$D21:$D21&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L21-$D21:$D21&gt;0,IF($M21-$D21&gt;0,IF($M21/$D21:$D21&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L21&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T21" s="19">
@@ -2144,7 +1789,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="22" spans="17:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q22" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2153,8 +1798,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S22" s="18" t="str">
-        <f>IFERROR(IF($E22&gt;$D22,IF(OR($E22/$D22&gt;=1.4,$F22/$D22&gt;=1.4,$H22/$D22&gt;=1.4,$I22/$D22&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H22-$G22&gt;0,$I22-$H22&gt;0,$J22-$I22&gt;0,$K22-$J22&gt;0,$L22-$K22&gt;0),IF($H22-基础数据!$D22:$D22&gt;0,IF($I22-$D22&gt;0,IF($I22/基础数据!$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I22-基础数据!$D22:$D22&gt;0,IF($J22-$D22&gt;0,IF($J22/基础数据!$D22:$D22&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J22-基础数据!$D22:$D22&gt;0,IF($K22-$D22&gt;0,IF($K22/基础数据!$D22:$D22&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K22-基础数据!$D22:$D22&gt;0,IF($L22-$D22&gt;0,IF($L22/基础数据!$D22:$D22&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L22-基础数据!$D22:$D22&gt;0,IF($M22-$D22&gt;0,IF($M22/基础数据!$D22:$D22&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L22&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S22" s="18" t="str" cm="1">
+        <f t="array" ref="S22">IFERROR(
+    IF($E22&gt;$D22,IF(OR($E22/$D22&gt;=1.4,$F22/$D22&gt;=1.4,$H22/$D22&gt;=1.4,$I22/$D22&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F22-E22&gt;0,G22-F22&gt;0,$H22-$G22&gt;0,$I22-$H22&gt;0,$J22-$I22&gt;0,$K22-$J22&gt;0,$L22-$K22&gt;0),
+    IF($F22-$D22:$D22&gt;0,IF($G22-$D22&gt;0,IF($G22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G22-$D22:$D22&gt;0,IF($H22-$D22&gt;0,IF($H22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H22-$D22:$D22&gt;0,IF($I22-$D22&gt;0,IF($I22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I22-$D22:$D22&gt;0,IF($J22-$D22&gt;0,IF($J22/$D22:$D22&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J22-$D22:$D22&gt;0,IF($K22-$D22&gt;0,IF($K22/$D22:$D22&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K22-$D22:$D22&gt;0,IF($L22-$D22&gt;0,IF($L22/$D22:$D22&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L22-$D22:$D22&gt;0,IF($M22-$D22&gt;0,IF($M22/$D22:$D22&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L22&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T22" s="19">
@@ -2170,7 +1825,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="Q23" s="17">
@@ -2181,8 +1836,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S23" s="18" t="str">
-        <f>IFERROR(IF($E23&gt;$D23,IF(OR($E23/$D23&gt;=1.4,$F23/$D23&gt;=1.4,$H23/$D23&gt;=1.4,$I23/$D23&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H23-$G23&gt;0,$I23-$H23&gt;0,$J23-$I23&gt;0,$K23-$J23&gt;0,$L23-$K23&gt;0),IF($H23-基础数据!$D23:$D23&gt;0,IF($I23-$D23&gt;0,IF($I23/基础数据!$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I23-基础数据!$D23:$D23&gt;0,IF($J23-$D23&gt;0,IF($J23/基础数据!$D23:$D23&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J23-基础数据!$D23:$D23&gt;0,IF($K23-$D23&gt;0,IF($K23/基础数据!$D23:$D23&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K23-基础数据!$D23:$D23&gt;0,IF($L23-$D23&gt;0,IF($L23/基础数据!$D23:$D23&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L23-基础数据!$D23:$D23&gt;0,IF($M23-$D23&gt;0,IF($M23/基础数据!$D23:$D23&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L23&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S23" s="18" t="str" cm="1">
+        <f t="array" ref="S23">IFERROR(
+    IF($E23&gt;$D23,IF(OR($E23/$D23&gt;=1.4,$F23/$D23&gt;=1.4,$H23/$D23&gt;=1.4,$I23/$D23&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F23-E23&gt;0,G23-F23&gt;0,$H23-$G23&gt;0,$I23-$H23&gt;0,$J23-$I23&gt;0,$K23-$J23&gt;0,$L23-$K23&gt;0),
+    IF($F23-$D23:$D23&gt;0,IF($G23-$D23&gt;0,IF($G23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G23-$D23:$D23&gt;0,IF($H23-$D23&gt;0,IF($H23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H23-$D23:$D23&gt;0,IF($I23-$D23&gt;0,IF($I23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I23-$D23:$D23&gt;0,IF($J23-$D23&gt;0,IF($J23/$D23:$D23&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J23-$D23:$D23&gt;0,IF($K23-$D23&gt;0,IF($K23/$D23:$D23&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K23-$D23:$D23&gt;0,IF($L23-$D23&gt;0,IF($L23/$D23:$D23&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L23-$D23:$D23&gt;0,IF($M23-$D23&gt;0,IF($M23/$D23:$D23&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L23&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T23" s="19">
@@ -2198,7 +1863,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="24" spans="17:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q24" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2207,8 +1872,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S24" s="18" t="str">
-        <f>IFERROR(IF($E24&gt;$D24,IF(OR($E24/$D24&gt;=1.4,$F24/$D24&gt;=1.4,$H24/$D24&gt;=1.4,$I24/$D24&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H24-$G24&gt;0,$I24-$H24&gt;0,$J24-$I24&gt;0,$K24-$J24&gt;0,$L24-$K24&gt;0),IF($H24-基础数据!$D24:$D24&gt;0,IF($I24-$D24&gt;0,IF($I24/基础数据!$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I24-基础数据!$D24:$D24&gt;0,IF($J24-$D24&gt;0,IF($J24/基础数据!$D24:$D24&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J24-基础数据!$D24:$D24&gt;0,IF($K24-$D24&gt;0,IF($K24/基础数据!$D24:$D24&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K24-基础数据!$D24:$D24&gt;0,IF($L24-$D24&gt;0,IF($L24/基础数据!$D24:$D24&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L24-基础数据!$D24:$D24&gt;0,IF($M24-$D24&gt;0,IF($M24/基础数据!$D24:$D24&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L24&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S24" s="18" t="str" cm="1">
+        <f t="array" ref="S24">IFERROR(
+    IF($E24&gt;$D24,IF(OR($E24/$D24&gt;=1.4,$F24/$D24&gt;=1.4,$H24/$D24&gt;=1.4,$I24/$D24&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F24-E24&gt;0,G24-F24&gt;0,$H24-$G24&gt;0,$I24-$H24&gt;0,$J24-$I24&gt;0,$K24-$J24&gt;0,$L24-$K24&gt;0),
+    IF($F24-$D24:$D24&gt;0,IF($G24-$D24&gt;0,IF($G24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G24-$D24:$D24&gt;0,IF($H24-$D24&gt;0,IF($H24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H24-$D24:$D24&gt;0,IF($I24-$D24&gt;0,IF($I24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I24-$D24:$D24&gt;0,IF($J24-$D24&gt;0,IF($J24/$D24:$D24&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J24-$D24:$D24&gt;0,IF($K24-$D24&gt;0,IF($K24/$D24:$D24&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K24-$D24:$D24&gt;0,IF($L24-$D24&gt;0,IF($L24/$D24:$D24&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L24-$D24:$D24&gt;0,IF($M24-$D24&gt;0,IF($M24/$D24:$D24&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L24&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T24" s="19">
@@ -2224,7 +1899,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="25" spans="17:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q25" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2233,8 +1908,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S25" s="18" t="str">
-        <f>IFERROR(IF($E25&gt;$D25,IF(OR($E25/$D25&gt;=1.4,$F25/$D25&gt;=1.4,$H25/$D25&gt;=1.4,$I25/$D25&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H25-$G25&gt;0,$I25-$H25&gt;0,$J25-$I25&gt;0,$K25-$J25&gt;0,$L25-$K25&gt;0),IF($H25-基础数据!$D25:$D25&gt;0,IF($I25-$D25&gt;0,IF($I25/基础数据!$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I25-基础数据!$D25:$D25&gt;0,IF($J25-$D25&gt;0,IF($J25/基础数据!$D25:$D25&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J25-基础数据!$D25:$D25&gt;0,IF($K25-$D25&gt;0,IF($K25/基础数据!$D25:$D25&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K25-基础数据!$D25:$D25&gt;0,IF($L25-$D25&gt;0,IF($L25/基础数据!$D25:$D25&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L25-基础数据!$D25:$D25&gt;0,IF($M25-$D25&gt;0,IF($M25/基础数据!$D25:$D25&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L25&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S25" s="18" t="str" cm="1">
+        <f t="array" ref="S25">IFERROR(
+    IF($E25&gt;$D25,IF(OR($E25/$D25&gt;=1.4,$F25/$D25&gt;=1.4,$H25/$D25&gt;=1.4,$I25/$D25&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F25-E25&gt;0,G25-F25&gt;0,$H25-$G25&gt;0,$I25-$H25&gt;0,$J25-$I25&gt;0,$K25-$J25&gt;0,$L25-$K25&gt;0),
+    IF($F25-$D25:$D25&gt;0,IF($G25-$D25&gt;0,IF($G25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G25-$D25:$D25&gt;0,IF($H25-$D25&gt;0,IF($H25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H25-$D25:$D25&gt;0,IF($I25-$D25&gt;0,IF($I25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I25-$D25:$D25&gt;0,IF($J25-$D25&gt;0,IF($J25/$D25:$D25&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J25-$D25:$D25&gt;0,IF($K25-$D25&gt;0,IF($K25/$D25:$D25&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K25-$D25:$D25&gt;0,IF($L25-$D25&gt;0,IF($L25/$D25:$D25&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L25-$D25:$D25&gt;0,IF($M25-$D25&gt;0,IF($M25/$D25:$D25&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L25&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T25" s="19">
@@ -2250,7 +1935,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="26" spans="17:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q26" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2259,8 +1944,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S26" s="18" t="str">
-        <f>IFERROR(IF($E26&gt;$D26,IF(OR($E26/$D26&gt;=1.4,$F26/$D26&gt;=1.4,$H26/$D26&gt;=1.4,$I26/$D26&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H26-$G26&gt;0,$I26-$H26&gt;0,$J26-$I26&gt;0,$K26-$J26&gt;0,$L26-$K26&gt;0),IF($H26-基础数据!$D26:$D26&gt;0,IF($I26-$D26&gt;0,IF($I26/基础数据!$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I26-基础数据!$D26:$D26&gt;0,IF($J26-$D26&gt;0,IF($J26/基础数据!$D26:$D26&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J26-基础数据!$D26:$D26&gt;0,IF($K26-$D26&gt;0,IF($K26/基础数据!$D26:$D26&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K26-基础数据!$D26:$D26&gt;0,IF($L26-$D26&gt;0,IF($L26/基础数据!$D26:$D26&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L26-基础数据!$D26:$D26&gt;0,IF($M26-$D26&gt;0,IF($M26/基础数据!$D26:$D26&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L26&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S26" s="18" t="str" cm="1">
+        <f t="array" ref="S26">IFERROR(
+    IF($E26&gt;$D26,IF(OR($E26/$D26&gt;=1.4,$F26/$D26&gt;=1.4,$H26/$D26&gt;=1.4,$I26/$D26&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F26-E26&gt;0,G26-F26&gt;0,$H26-$G26&gt;0,$I26-$H26&gt;0,$J26-$I26&gt;0,$K26-$J26&gt;0,$L26-$K26&gt;0),
+    IF($F26-$D26:$D26&gt;0,IF($G26-$D26&gt;0,IF($G26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G26-$D26:$D26&gt;0,IF($H26-$D26&gt;0,IF($H26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H26-$D26:$D26&gt;0,IF($I26-$D26&gt;0,IF($I26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I26-$D26:$D26&gt;0,IF($J26-$D26&gt;0,IF($J26/$D26:$D26&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J26-$D26:$D26&gt;0,IF($K26-$D26&gt;0,IF($K26/$D26:$D26&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K26-$D26:$D26&gt;0,IF($L26-$D26&gt;0,IF($L26/$D26:$D26&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L26-$D26:$D26&gt;0,IF($M26-$D26&gt;0,IF($M26/$D26:$D26&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L26&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T26" s="19">
@@ -2276,7 +1971,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="27" spans="17:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q27" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2285,8 +1980,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S27" s="18" t="str">
-        <f>IFERROR(IF($E27&gt;$D27,IF(OR($E27/$D27&gt;=1.4,$F27/$D27&gt;=1.4,$H27/$D27&gt;=1.4,$I27/$D27&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H27-$G27&gt;0,$I27-$H27&gt;0,$J27-$I27&gt;0,$K27-$J27&gt;0,$L27-$K27&gt;0),IF($H27-基础数据!$D27:$D27&gt;0,IF($I27-$D27&gt;0,IF($I27/基础数据!$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I27-基础数据!$D27:$D27&gt;0,IF($J27-$D27&gt;0,IF($J27/基础数据!$D27:$D27&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J27-基础数据!$D27:$D27&gt;0,IF($K27-$D27&gt;0,IF($K27/基础数据!$D27:$D27&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K27-基础数据!$D27:$D27&gt;0,IF($L27-$D27&gt;0,IF($L27/基础数据!$D27:$D27&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L27-基础数据!$D27:$D27&gt;0,IF($M27-$D27&gt;0,IF($M27/基础数据!$D27:$D27&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L27&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S27" s="18" t="str" cm="1">
+        <f t="array" ref="S27">IFERROR(
+    IF($E27&gt;$D27,IF(OR($E27/$D27&gt;=1.4,$F27/$D27&gt;=1.4,$H27/$D27&gt;=1.4,$I27/$D27&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F27-E27&gt;0,G27-F27&gt;0,$H27-$G27&gt;0,$I27-$H27&gt;0,$J27-$I27&gt;0,$K27-$J27&gt;0,$L27-$K27&gt;0),
+    IF($F27-$D27:$D27&gt;0,IF($G27-$D27&gt;0,IF($G27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G27-$D27:$D27&gt;0,IF($H27-$D27&gt;0,IF($H27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H27-$D27:$D27&gt;0,IF($I27-$D27&gt;0,IF($I27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I27-$D27:$D27&gt;0,IF($J27-$D27&gt;0,IF($J27/$D27:$D27&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J27-$D27:$D27&gt;0,IF($K27-$D27&gt;0,IF($K27/$D27:$D27&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K27-$D27:$D27&gt;0,IF($L27-$D27&gt;0,IF($L27/$D27:$D27&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L27-$D27:$D27&gt;0,IF($M27-$D27&gt;0,IF($M27/$D27:$D27&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L27&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T27" s="19">
@@ -2302,7 +2007,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="28" spans="17:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q28" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2311,8 +2016,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S28" s="18" t="str">
-        <f>IFERROR(IF($E28&gt;$D28,IF(OR($E28/$D28&gt;=1.4,$F28/$D28&gt;=1.4,$H28/$D28&gt;=1.4,$I28/$D28&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H28-$G28&gt;0,$I28-$H28&gt;0,$J28-$I28&gt;0,$K28-$J28&gt;0,$L28-$K28&gt;0),IF($H28-基础数据!$D28:$D28&gt;0,IF($I28-$D28&gt;0,IF($I28/基础数据!$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I28-基础数据!$D28:$D28&gt;0,IF($J28-$D28&gt;0,IF($J28/基础数据!$D28:$D28&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J28-基础数据!$D28:$D28&gt;0,IF($K28-$D28&gt;0,IF($K28/基础数据!$D28:$D28&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K28-基础数据!$D28:$D28&gt;0,IF($L28-$D28&gt;0,IF($L28/基础数据!$D28:$D28&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L28-基础数据!$D28:$D28&gt;0,IF($M28-$D28&gt;0,IF($M28/基础数据!$D28:$D28&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L28&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S28" s="18" t="str" cm="1">
+        <f t="array" ref="S28">IFERROR(
+    IF($E28&gt;$D28,IF(OR($E28/$D28&gt;=1.4,$F28/$D28&gt;=1.4,$H28/$D28&gt;=1.4,$I28/$D28&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F28-E28&gt;0,G28-F28&gt;0,$H28-$G28&gt;0,$I28-$H28&gt;0,$J28-$I28&gt;0,$K28-$J28&gt;0,$L28-$K28&gt;0),
+    IF($F28-$D28:$D28&gt;0,IF($G28-$D28&gt;0,IF($G28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G28-$D28:$D28&gt;0,IF($H28-$D28&gt;0,IF($H28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H28-$D28:$D28&gt;0,IF($I28-$D28&gt;0,IF($I28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I28-$D28:$D28&gt;0,IF($J28-$D28&gt;0,IF($J28/$D28:$D28&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J28-$D28:$D28&gt;0,IF($K28-$D28&gt;0,IF($K28/$D28:$D28&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K28-$D28:$D28&gt;0,IF($L28-$D28&gt;0,IF($L28/$D28:$D28&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L28-$D28:$D28&gt;0,IF($M28-$D28&gt;0,IF($M28/$D28:$D28&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L28&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T28" s="19">
@@ -2328,7 +2043,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="29" spans="17:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q29" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2337,8 +2052,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S29" s="18" t="str">
-        <f>IFERROR(IF($E29&gt;$D29,IF(OR($E29/$D29&gt;=1.4,$F29/$D29&gt;=1.4,$H29/$D29&gt;=1.4,$I29/$D29&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H29-$G29&gt;0,$I29-$H29&gt;0,$J29-$I29&gt;0,$K29-$J29&gt;0,$L29-$K29&gt;0),IF($H29-基础数据!$D29:$D29&gt;0,IF($I29-$D29&gt;0,IF($I29/基础数据!$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I29-基础数据!$D29:$D29&gt;0,IF($J29-$D29&gt;0,IF($J29/基础数据!$D29:$D29&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J29-基础数据!$D29:$D29&gt;0,IF($K29-$D29&gt;0,IF($K29/基础数据!$D29:$D29&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K29-基础数据!$D29:$D29&gt;0,IF($L29-$D29&gt;0,IF($L29/基础数据!$D29:$D29&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L29-基础数据!$D29:$D29&gt;0,IF($M29-$D29&gt;0,IF($M29/基础数据!$D29:$D29&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L29&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S29" s="18" t="str" cm="1">
+        <f t="array" ref="S29">IFERROR(
+    IF($E29&gt;$D29,IF(OR($E29/$D29&gt;=1.4,$F29/$D29&gt;=1.4,$H29/$D29&gt;=1.4,$I29/$D29&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F29-E29&gt;0,G29-F29&gt;0,$H29-$G29&gt;0,$I29-$H29&gt;0,$J29-$I29&gt;0,$K29-$J29&gt;0,$L29-$K29&gt;0),
+    IF($F29-$D29:$D29&gt;0,IF($G29-$D29&gt;0,IF($G29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G29-$D29:$D29&gt;0,IF($H29-$D29&gt;0,IF($H29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H29-$D29:$D29&gt;0,IF($I29-$D29&gt;0,IF($I29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I29-$D29:$D29&gt;0,IF($J29-$D29&gt;0,IF($J29/$D29:$D29&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J29-$D29:$D29&gt;0,IF($K29-$D29&gt;0,IF($K29/$D29:$D29&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K29-$D29:$D29&gt;0,IF($L29-$D29&gt;0,IF($L29/$D29:$D29&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L29-$D29:$D29&gt;0,IF($M29-$D29&gt;0,IF($M29/$D29:$D29&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L29&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T29" s="19">
@@ -2354,7 +2079,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="30" spans="17:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q30" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2363,8 +2088,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S30" s="18" t="str">
-        <f>IFERROR(IF($E30&gt;$D30,IF(OR($E30/$D30&gt;=1.4,$F30/$D30&gt;=1.4,$H30/$D30&gt;=1.4,$I30/$D30&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H30-$G30&gt;0,$I30-$H30&gt;0,$J30-$I30&gt;0,$K30-$J30&gt;0,$L30-$K30&gt;0),IF($H30-基础数据!$D30:$D30&gt;0,IF($I30-$D30&gt;0,IF($I30/基础数据!$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I30-基础数据!$D30:$D30&gt;0,IF($J30-$D30&gt;0,IF($J30/基础数据!$D30:$D30&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J30-基础数据!$D30:$D30&gt;0,IF($K30-$D30&gt;0,IF($K30/基础数据!$D30:$D30&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K30-基础数据!$D30:$D30&gt;0,IF($L30-$D30&gt;0,IF($L30/基础数据!$D30:$D30&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L30-基础数据!$D30:$D30&gt;0,IF($M30-$D30&gt;0,IF($M30/基础数据!$D30:$D30&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L30&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S30" s="18" t="str" cm="1">
+        <f t="array" ref="S30">IFERROR(
+    IF($E30&gt;$D30,IF(OR($E30/$D30&gt;=1.4,$F30/$D30&gt;=1.4,$H30/$D30&gt;=1.4,$I30/$D30&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F30-E30&gt;0,G30-F30&gt;0,$H30-$G30&gt;0,$I30-$H30&gt;0,$J30-$I30&gt;0,$K30-$J30&gt;0,$L30-$K30&gt;0),
+    IF($F30-$D30:$D30&gt;0,IF($G30-$D30&gt;0,IF($G30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G30-$D30:$D30&gt;0,IF($H30-$D30&gt;0,IF($H30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H30-$D30:$D30&gt;0,IF($I30-$D30&gt;0,IF($I30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I30-$D30:$D30&gt;0,IF($J30-$D30&gt;0,IF($J30/$D30:$D30&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J30-$D30:$D30&gt;0,IF($K30-$D30&gt;0,IF($K30/$D30:$D30&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K30-$D30:$D30&gt;0,IF($L30-$D30&gt;0,IF($L30/$D30:$D30&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L30-$D30:$D30&gt;0,IF($M30-$D30&gt;0,IF($M30/$D30:$D30&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L30&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T30" s="19">
@@ -2380,7 +2115,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="31" spans="17:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q31" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2389,8 +2124,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S31" s="18" t="str">
-        <f>IFERROR(IF($E31&gt;$D31,IF(OR($E31/$D31&gt;=1.4,$F31/$D31&gt;=1.4,$H31/$D31&gt;=1.4,$I31/$D31&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H31-$G31&gt;0,$I31-$H31&gt;0,$J31-$I31&gt;0,$K31-$J31&gt;0,$L31-$K31&gt;0),IF($H31-基础数据!$D31:$D31&gt;0,IF($I31-$D31&gt;0,IF($I31/基础数据!$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I31-基础数据!$D31:$D31&gt;0,IF($J31-$D31&gt;0,IF($J31/基础数据!$D31:$D31&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J31-基础数据!$D31:$D31&gt;0,IF($K31-$D31&gt;0,IF($K31/基础数据!$D31:$D31&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K31-基础数据!$D31:$D31&gt;0,IF($L31-$D31&gt;0,IF($L31/基础数据!$D31:$D31&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L31-基础数据!$D31:$D31&gt;0,IF($M31-$D31&gt;0,IF($M31/基础数据!$D31:$D31&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L31&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S31" s="18" t="str" cm="1">
+        <f t="array" ref="S31">IFERROR(
+    IF($E31&gt;$D31,IF(OR($E31/$D31&gt;=1.4,$F31/$D31&gt;=1.4,$H31/$D31&gt;=1.4,$I31/$D31&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F31-E31&gt;0,G31-F31&gt;0,$H31-$G31&gt;0,$I31-$H31&gt;0,$J31-$I31&gt;0,$K31-$J31&gt;0,$L31-$K31&gt;0),
+    IF($F31-$D31:$D31&gt;0,IF($G31-$D31&gt;0,IF($G31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G31-$D31:$D31&gt;0,IF($H31-$D31&gt;0,IF($H31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H31-$D31:$D31&gt;0,IF($I31-$D31&gt;0,IF($I31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I31-$D31:$D31&gt;0,IF($J31-$D31&gt;0,IF($J31/$D31:$D31&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J31-$D31:$D31&gt;0,IF($K31-$D31&gt;0,IF($K31/$D31:$D31&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K31-$D31:$D31&gt;0,IF($L31-$D31&gt;0,IF($L31/$D31:$D31&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L31-$D31:$D31&gt;0,IF($M31-$D31&gt;0,IF($M31/$D31:$D31&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L31&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T31" s="19">
@@ -2406,7 +2151,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="32" spans="17:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q32" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2415,8 +2160,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S32" s="18" t="str">
-        <f>IFERROR(IF($E32&gt;$D32,IF(OR($E32/$D32&gt;=1.4,$F32/$D32&gt;=1.4,$H32/$D32&gt;=1.4,$I32/$D32&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H32-$G32&gt;0,$I32-$H32&gt;0,$J32-$I32&gt;0,$K32-$J32&gt;0,$L32-$K32&gt;0),IF($H32-基础数据!$D32:$D32&gt;0,IF($I32-$D32&gt;0,IF($I32/基础数据!$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I32-基础数据!$D32:$D32&gt;0,IF($J32-$D32&gt;0,IF($J32/基础数据!$D32:$D32&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J32-基础数据!$D32:$D32&gt;0,IF($K32-$D32&gt;0,IF($K32/基础数据!$D32:$D32&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K32-基础数据!$D32:$D32&gt;0,IF($L32-$D32&gt;0,IF($L32/基础数据!$D32:$D32&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L32-基础数据!$D32:$D32&gt;0,IF($M32-$D32&gt;0,IF($M32/基础数据!$D32:$D32&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L32&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S32" s="18" t="str" cm="1">
+        <f t="array" ref="S32">IFERROR(
+    IF($E32&gt;$D32,IF(OR($E32/$D32&gt;=1.4,$F32/$D32&gt;=1.4,$H32/$D32&gt;=1.4,$I32/$D32&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F32-E32&gt;0,G32-F32&gt;0,$H32-$G32&gt;0,$I32-$H32&gt;0,$J32-$I32&gt;0,$K32-$J32&gt;0,$L32-$K32&gt;0),
+    IF($F32-$D32:$D32&gt;0,IF($G32-$D32&gt;0,IF($G32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G32-$D32:$D32&gt;0,IF($H32-$D32&gt;0,IF($H32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H32-$D32:$D32&gt;0,IF($I32-$D32&gt;0,IF($I32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I32-$D32:$D32&gt;0,IF($J32-$D32&gt;0,IF($J32/$D32:$D32&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J32-$D32:$D32&gt;0,IF($K32-$D32&gt;0,IF($K32/$D32:$D32&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K32-$D32:$D32&gt;0,IF($L32-$D32&gt;0,IF($L32/$D32:$D32&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L32-$D32:$D32&gt;0,IF($M32-$D32&gt;0,IF($M32/$D32:$D32&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L32&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T32" s="19">
@@ -2432,7 +2187,7 @@
         <v>数据不足，无法预测</v>
       </c>
     </row>
-    <row r="33" spans="17:22">
+    <row r="33" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q33" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2441,8 +2196,18 @@
         <f t="shared" si="6"/>
         <v>接近4期</v>
       </c>
-      <c r="S33" s="18" t="str">
-        <f>IFERROR(IF($E33&gt;$D33,IF(OR($E33/$D33&gt;=1.4,$F33/$D33&gt;=1.4,$H33/$D33&gt;=1.4,$I33/$D33&gt;=1.4),"四期型，最高价在周三上午","波动型"),IF(OR($H33-$G33&gt;0,$I33-$H33&gt;0,$J33-$I33&gt;0,$K33-$J33&gt;0,$L33-$K33&gt;0),IF($H33-基础数据!$D33:$D33&gt;0,IF($I33-$D33&gt;0,IF($I33/基础数据!$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),IF($I33-基础数据!$D33:$D33&gt;0,IF($J33-$D33&gt;0,IF($J33/基础数据!$D33:$D33&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),IF($J33-基础数据!$D33:$D33&gt;0,IF($K33-$D33&gt;0,IF($K33/基础数据!$D33:$D33&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),IF($K33-基础数据!$D33:$D33&gt;0,IF($L33-$D33&gt;0,IF($L33/基础数据!$D33:$D33&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),IF($L33-基础数据!$D33:$D33&gt;0,IF($M33-$D33&gt;0,IF($M33/基础数据!$D33:$D33&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))),IF($L33&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S33" s="18" t="str" cm="1">
+        <f t="array" ref="S33">IFERROR(
+    IF($E33&gt;$D33,IF(OR($E33/$D33&gt;=1.4,$F33/$D33&gt;=1.4,$H33/$D33&gt;=1.4,$I33/$D33&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF(OR(F33-E33&gt;0,G33-F33&gt;0,$H33-$G33&gt;0,$I33-$H33&gt;0,$J33-$I33&gt;0,$K33-$J33&gt;0,$L33-$K33&gt;0),
+    IF($F33-$D33:$D33&gt;0,IF($G33-$D33&gt;0,IF($G33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G33-$D33:$D33&gt;0,IF($H33-$D33&gt;0,IF($H33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($H33-$D33:$D33&gt;0,IF($I33-$D33&gt;0,IF($I33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I33-$D33:$D33&gt;0,IF($J33-$D33&gt;0,IF($J33/$D33:$D33&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J33-$D33:$D33&gt;0,IF($K33-$D33&gt;0,IF($K33/$D33:$D33&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K33-$D33:$D33&gt;0,IF($L33-$D33&gt;0,IF($L33/$D33:$D33&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L33-$D33:$D33&gt;0,IF($M33-$D33&gt;0,IF($M33/$D33:$D33&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($L33&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T33" s="19">
@@ -2463,28 +2228,25 @@
   <protectedRanges>
     <protectedRange sqref="A2:P20" name="Range1"/>
   </protectedRanges>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2493,28 +2255,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2">
         <f>INDEX(基础数据!B:B,MATCH(MAX(基础数据!T:T),基础数据!T:T,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="str">
         <f>INDEX(基础数据!S:S,MATCH(MAX(基础数据!T:T),基础数据!T:T,0))</f>
-        <v>递减型或三期四期型</v>
+        <v>三期型，最高价在周三下午</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2526,19 +2290,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master="">
-    <arrUserId title="Range1"/>
-  </rangeList>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,15 +2310,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master="">
+    <arrUserId title="Range1"/>
+  </rangeList>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2576,7 +2338,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2585,7 +2347,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2603,7 +2365,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/zh-cn.xlsx
+++ b/zh-cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大头菜证券\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B60F90-4FE2-4F2F-B720-C4CB025BC8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658D4D8-56A0-4BDB-B350-E46F8E63EC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31515" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,28 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +633,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,9 +747,7 @@
       <c r="G2" s="10">
         <v>184</v>
       </c>
-      <c r="H2" s="10">
-        <v>491</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -788,27 +764,27 @@
         <f>IF(Q2&gt;=91%,"波型or4期",IF(Q2&gt;=85%,"3期or4期or递减型",IF(Q2&gt;=80%,"3期or4期",IF(Q2&gt;=60%,"波形or4期",IF(Q2&lt;60%,"接近4期")))))</f>
         <v>3期or4期or递减型</v>
       </c>
-      <c r="S2" s="18" t="str" cm="1">
-        <f t="array" ref="S2">IFERROR(
+      <c r="S2" s="18" t="str">
+        <f>IFERROR(
     IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$H2/$D2&gt;=1.4,$I2/$D2&gt;=1.4),"四期型，最高价在周三上午","波动型"),
     IF(OR(F2-E2&gt;0,G2-F2&gt;0,$H2-$G2&gt;0,$I2-$H2&gt;0,$J2-$I2&gt;0,$K2-$J2&gt;0,$L2-$K2&gt;0),
-    IF($F2-$D2:$D2&gt;0,IF($G2-$D2&gt;0,IF($G2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G2-$D2:$D2&gt;0,IF($H2-$D2&gt;0,IF($H2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H2-$D2:$D2&gt;0,IF($I2-$D2&gt;0,IF($I2/$D2:$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I2-$D2:$D2&gt;0,IF($J2-$D2&gt;0,IF($J2/$D2:$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J2-$D2:$D2&gt;0,IF($K2-$D2&gt;0,IF($K2/$D2:$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K2-$D2:$D2&gt;0,IF($L2-$D2&gt;0,IF($L2/$D2:$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L2-$D2:$D2&gt;0,IF($M2-$D2&gt;0,IF($M2/$D2:$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F2-$E2&gt;0,IF($G2-$D2&gt;0,IF($G2/$D2&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G2-$F2&gt;0,IF($H2-$D2&gt;0,IF($H2/$D2&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周四上午"),"波动型"),
+    IF($H2-$G2&gt;0,IF($I2-$D2&gt;0,IF($I2/$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I2-$H2&gt;0,IF($J2-$D2&gt;0,IF($J2/$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J2-$I2&gt;0,IF($K2-$D2&gt;0,IF($K2/$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K2-$J2&gt;0,IF($L2-$D2&gt;0,IF($L2/$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L2-$K2&gt;0,IF($M2-$D2&gt;0,IF($M2/$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
     IF($L2&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
-        <v>三期型，最高价在周三下午</v>
+        <v>三期型，最高价在周二下午</v>
       </c>
       <c r="T2" s="19">
         <f t="shared" ref="T2:T20" si="1">IFERROR(MAX($E2:$P2),0)</f>
-        <v>491</v>
+        <v>184</v>
       </c>
       <c r="U2" s="22">
         <f t="shared" ref="U2:U20" si="2">IFERROR(($T2-$D2)/$D2*100%,0)</f>
-        <v>4.3369565217391308</v>
+        <v>1</v>
       </c>
       <c r="V2" s="21" t="str">
         <f>IF(S2="递减型或三期四期型","数据不足，无法预测",IF(S2="递减型","快逃吧！回本没希望了",IF(S2="波动型",D2*0.9&amp;"~"&amp;D2*1.4,IF(LEFT(S2,3)="三期型",2*D2&amp;"~"&amp;6*D2,IF(LEFT(S2,3)="四期型",1.4*D2&amp;"~"&amp;2*D2)))))</f>
@@ -840,17 +816,17 @@
         <f t="shared" ref="R3:R20" si="3">IF(Q3&gt;=91%,"波型or4期",IF(Q3&gt;=85%,"3期or4期or递减型",IF(Q3&gt;=80%,"3期or4期",IF(Q3&gt;=60%,"波形or4期",IF(Q3&lt;60%,"接近4期")))))</f>
         <v>接近4期</v>
       </c>
-      <c r="S3" s="18" t="str" cm="1">
-        <f t="array" ref="S3">IFERROR(
+      <c r="S3" s="18" t="str">
+        <f t="shared" ref="S3:S33" si="4">IFERROR(
     IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$H3/$D3&gt;=1.4,$I3/$D3&gt;=1.4),"四期型，最高价在周三上午","波动型"),
     IF(OR(F3-E3&gt;0,G3-F3&gt;0,$H3-$G3&gt;0,$I3-$H3&gt;0,$J3-$I3&gt;0,$K3-$J3&gt;0,$L3-$K3&gt;0),
-    IF($F3-$D3:$D3&gt;0,IF($G3-$D3&gt;0,IF($G3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G3-$D3:$D3&gt;0,IF($H3-$D3&gt;0,IF($H3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H3-$D3:$D3&gt;0,IF($I3-$D3&gt;0,IF($I3/$D3:$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I3-$D3:$D3&gt;0,IF($J3-$D3&gt;0,IF($J3/$D3:$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J3-$D3:$D3&gt;0,IF($K3-$D3&gt;0,IF($K3/$D3:$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K3-$D3:$D3&gt;0,IF($L3-$D3&gt;0,IF($L3/$D3:$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L3-$D3:$D3&gt;0,IF($M3-$D3&gt;0,IF($M3/$D3:$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F3-$E3&gt;0,IF($G3-$D3&gt;0,IF($G3/$D3&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周四上午"),"波动型"),
+    IF($G3-$F3&gt;0,IF($H3-$D3&gt;0,IF($H3/$D3&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周四上午"),"波动型"),
+    IF($H3-$G3&gt;0,IF($I3-$D3&gt;0,IF($I3/$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I3-$H3&gt;0,IF($J3-$D3&gt;0,IF($J3/$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J3-$I3&gt;0,IF($K3-$D3&gt;0,IF($K3/$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K3-$J3&gt;0,IF($L3-$D3&gt;0,IF($L3/$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L3-$K3&gt;0,IF($M3-$D3&gt;0,IF($M3/$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
     IF($L3&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
@@ -863,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="21" t="str">
-        <f t="shared" ref="V3:V33" si="4">IF(S3="递减型或三期四期型","数据不足，无法预测",IF(S3="递减型","快逃吧！回本没希望了",IF(S3="波动型",D3*0.9&amp;"~"&amp;D3*1.4,IF(LEFT(S3,3)="三期型",2*D3&amp;"~"&amp;6*D3,IF(LEFT(S3,3)="四期型",1.4*D3&amp;"~"&amp;2*D3)))))</f>
+        <f t="shared" ref="V3:V33" si="5">IF(S3="递减型或三期四期型","数据不足，无法预测",IF(S3="递减型","快逃吧！回本没希望了",IF(S3="波动型",D3*0.9&amp;"~"&amp;D3*1.4,IF(LEFT(S3,3)="三期型",2*D3&amp;"~"&amp;6*D3,IF(LEFT(S3,3)="四期型",1.4*D3&amp;"~"&amp;2*D3)))))</f>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -892,18 +868,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S4" s="18" t="str" cm="1">
-        <f t="array" ref="S4">IFERROR(
-    IF($E4&gt;$D4,IF(OR($E4/$D4&gt;=1.4,$F4/$D4&gt;=1.4,$H4/$D4&gt;=1.4,$I4/$D4&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F4-E4&gt;0,G4-F4&gt;0,$H4-$G4&gt;0,$I4-$H4&gt;0,$J4-$I4&gt;0,$K4-$J4&gt;0,$L4-$K4&gt;0),
-    IF($F4-$D4:$D4&gt;0,IF($G4-$D4&gt;0,IF($G4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G4-$D4:$D4&gt;0,IF($H4-$D4&gt;0,IF($H4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H4-$D4:$D4&gt;0,IF($I4-$D4&gt;0,IF($I4/$D4:$D4&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I4-$D4:$D4&gt;0,IF($J4-$D4&gt;0,IF($J4/$D4:$D4&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J4-$D4:$D4&gt;0,IF($K4-$D4&gt;0,IF($K4/$D4:$D4&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K4-$D4:$D4&gt;0,IF($L4-$D4&gt;0,IF($L4/$D4:$D4&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L4-$D4:$D4&gt;0,IF($M4-$D4&gt;0,IF($M4/$D4:$D4&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L4&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T4" s="19">
@@ -915,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -944,18 +910,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S5" s="18" t="str" cm="1">
-        <f t="array" ref="S5">IFERROR(
-    IF($E5&gt;$D5,IF(OR($E5/$D5&gt;=1.4,$F5/$D5&gt;=1.4,$H5/$D5&gt;=1.4,$I5/$D5&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F5-E5&gt;0,G5-F5&gt;0,$H5-$G5&gt;0,$I5-$H5&gt;0,$J5-$I5&gt;0,$K5-$J5&gt;0,$L5-$K5&gt;0),
-    IF($F5-$D5:$D5&gt;0,IF($G5-$D5&gt;0,IF($G5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G5-$D5:$D5&gt;0,IF($H5-$D5&gt;0,IF($H5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H5-$D5:$D5&gt;0,IF($I5-$D5&gt;0,IF($I5/$D5:$D5&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I5-$D5:$D5&gt;0,IF($J5-$D5&gt;0,IF($J5/$D5:$D5&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J5-$D5:$D5&gt;0,IF($K5-$D5&gt;0,IF($K5/$D5:$D5&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K5-$D5:$D5&gt;0,IF($L5-$D5&gt;0,IF($L5/$D5:$D5&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L5-$D5:$D5&gt;0,IF($M5-$D5&gt;0,IF($M5/$D5:$D5&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L5&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S5" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T5" s="19">
@@ -967,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -996,18 +952,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S6" s="18" t="str" cm="1">
-        <f t="array" ref="S6">IFERROR(
-    IF($E6&gt;$D6,IF(OR($E6/$D6&gt;=1.4,$F6/$D6&gt;=1.4,$H6/$D6&gt;=1.4,$I6/$D6&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F6-E6&gt;0,G6-F6&gt;0,$H6-$G6&gt;0,$I6-$H6&gt;0,$J6-$I6&gt;0,$K6-$J6&gt;0,$L6-$K6&gt;0),
-    IF($F6-$D6:$D6&gt;0,IF($G6-$D6&gt;0,IF($G6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G6-$D6:$D6&gt;0,IF($H6-$D6&gt;0,IF($H6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H6-$D6:$D6&gt;0,IF($I6-$D6&gt;0,IF($I6/$D6:$D6&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I6-$D6:$D6&gt;0,IF($J6-$D6&gt;0,IF($J6/$D6:$D6&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J6-$D6:$D6&gt;0,IF($K6-$D6&gt;0,IF($K6/$D6:$D6&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K6-$D6:$D6&gt;0,IF($L6-$D6&gt;0,IF($L6/$D6:$D6&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L6-$D6:$D6&gt;0,IF($M6-$D6&gt;0,IF($M6/$D6:$D6&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L6&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T6" s="19">
@@ -1019,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1048,18 +994,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S7" s="18" t="str" cm="1">
-        <f t="array" ref="S7">IFERROR(
-    IF($E7&gt;$D7,IF(OR($E7/$D7&gt;=1.4,$F7/$D7&gt;=1.4,$H7/$D7&gt;=1.4,$I7/$D7&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F7-E7&gt;0,G7-F7&gt;0,$H7-$G7&gt;0,$I7-$H7&gt;0,$J7-$I7&gt;0,$K7-$J7&gt;0,$L7-$K7&gt;0),
-    IF($F7-$D7:$D7&gt;0,IF($G7-$D7&gt;0,IF($G7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G7-$D7:$D7&gt;0,IF($H7-$D7&gt;0,IF($H7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H7-$D7:$D7&gt;0,IF($I7-$D7&gt;0,IF($I7/$D7:$D7&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I7-$D7:$D7&gt;0,IF($J7-$D7&gt;0,IF($J7/$D7:$D7&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J7-$D7:$D7&gt;0,IF($K7-$D7&gt;0,IF($K7/$D7:$D7&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K7-$D7:$D7&gt;0,IF($L7-$D7&gt;0,IF($L7/$D7:$D7&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L7-$D7:$D7&gt;0,IF($M7-$D7&gt;0,IF($M7/$D7:$D7&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L7&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S7" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T7" s="19">
@@ -1071,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1100,18 +1036,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S8" s="18" t="str" cm="1">
-        <f t="array" ref="S8">IFERROR(
-    IF($E8&gt;$D8,IF(OR($E8/$D8&gt;=1.4,$F8/$D8&gt;=1.4,$H8/$D8&gt;=1.4,$I8/$D8&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F8-E8&gt;0,G8-F8&gt;0,$H8-$G8&gt;0,$I8-$H8&gt;0,$J8-$I8&gt;0,$K8-$J8&gt;0,$L8-$K8&gt;0),
-    IF($F8-$D8:$D8&gt;0,IF($G8-$D8&gt;0,IF($G8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G8-$D8:$D8&gt;0,IF($H8-$D8&gt;0,IF($H8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H8-$D8:$D8&gt;0,IF($I8-$D8&gt;0,IF($I8/$D8:$D8&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I8-$D8:$D8&gt;0,IF($J8-$D8&gt;0,IF($J8/$D8:$D8&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J8-$D8:$D8&gt;0,IF($K8-$D8&gt;0,IF($K8/$D8:$D8&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K8-$D8:$D8&gt;0,IF($L8-$D8&gt;0,IF($L8/$D8:$D8&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L8-$D8:$D8&gt;0,IF($M8-$D8&gt;0,IF($M8/$D8:$D8&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L8&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S8" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T8" s="19">
@@ -1123,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1152,18 +1078,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S9" s="18" t="str" cm="1">
-        <f t="array" ref="S9">IFERROR(
-    IF($E9&gt;$D9,IF(OR($E9/$D9&gt;=1.4,$F9/$D9&gt;=1.4,$H9/$D9&gt;=1.4,$I9/$D9&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F9-E9&gt;0,G9-F9&gt;0,$H9-$G9&gt;0,$I9-$H9&gt;0,$J9-$I9&gt;0,$K9-$J9&gt;0,$L9-$K9&gt;0),
-    IF($F9-$D9:$D9&gt;0,IF($G9-$D9&gt;0,IF($G9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G9-$D9:$D9&gt;0,IF($H9-$D9&gt;0,IF($H9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H9-$D9:$D9&gt;0,IF($I9-$D9&gt;0,IF($I9/$D9:$D9&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I9-$D9:$D9&gt;0,IF($J9-$D9&gt;0,IF($J9/$D9:$D9&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J9-$D9:$D9&gt;0,IF($K9-$D9&gt;0,IF($K9/$D9:$D9&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K9-$D9:$D9&gt;0,IF($L9-$D9&gt;0,IF($L9/$D9:$D9&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L9-$D9:$D9&gt;0,IF($M9-$D9&gt;0,IF($M9/$D9:$D9&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L9&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S9" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T9" s="19">
@@ -1175,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1204,18 +1120,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S10" s="18" t="str" cm="1">
-        <f t="array" ref="S10">IFERROR(
-    IF($E10&gt;$D10,IF(OR($E10/$D10&gt;=1.4,$F10/$D10&gt;=1.4,$H10/$D10&gt;=1.4,$I10/$D10&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F10-E10&gt;0,G10-F10&gt;0,$H10-$G10&gt;0,$I10-$H10&gt;0,$J10-$I10&gt;0,$K10-$J10&gt;0,$L10-$K10&gt;0),
-    IF($F10-$D10:$D10&gt;0,IF($G10-$D10&gt;0,IF($G10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G10-$D10:$D10&gt;0,IF($H10-$D10&gt;0,IF($H10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H10-$D10:$D10&gt;0,IF($I10-$D10&gt;0,IF($I10/$D10:$D10&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I10-$D10:$D10&gt;0,IF($J10-$D10&gt;0,IF($J10/$D10:$D10&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J10-$D10:$D10&gt;0,IF($K10-$D10&gt;0,IF($K10/$D10:$D10&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K10-$D10:$D10&gt;0,IF($L10-$D10&gt;0,IF($L10/$D10:$D10&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L10-$D10:$D10&gt;0,IF($M10-$D10&gt;0,IF($M10/$D10:$D10&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L10&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S10" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T10" s="19">
@@ -1227,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1256,18 +1162,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S11" s="18" t="str" cm="1">
-        <f t="array" ref="S11">IFERROR(
-    IF($E11&gt;$D11,IF(OR($E11/$D11&gt;=1.4,$F11/$D11&gt;=1.4,$H11/$D11&gt;=1.4,$I11/$D11&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F11-E11&gt;0,G11-F11&gt;0,$H11-$G11&gt;0,$I11-$H11&gt;0,$J11-$I11&gt;0,$K11-$J11&gt;0,$L11-$K11&gt;0),
-    IF($F11-$D11:$D11&gt;0,IF($G11-$D11&gt;0,IF($G11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G11-$D11:$D11&gt;0,IF($H11-$D11&gt;0,IF($H11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H11-$D11:$D11&gt;0,IF($I11-$D11&gt;0,IF($I11/$D11:$D11&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I11-$D11:$D11&gt;0,IF($J11-$D11&gt;0,IF($J11/$D11:$D11&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J11-$D11:$D11&gt;0,IF($K11-$D11&gt;0,IF($K11/$D11:$D11&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K11-$D11:$D11&gt;0,IF($L11-$D11&gt;0,IF($L11/$D11:$D11&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L11-$D11:$D11&gt;0,IF($M11-$D11&gt;0,IF($M11/$D11:$D11&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L11&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S11" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T11" s="19">
@@ -1279,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1308,18 +1204,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S12" s="18" t="str" cm="1">
-        <f t="array" ref="S12">IFERROR(
-    IF($E12&gt;$D12,IF(OR($E12/$D12&gt;=1.4,$F12/$D12&gt;=1.4,$H12/$D12&gt;=1.4,$I12/$D12&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F12-E12&gt;0,G12-F12&gt;0,$H12-$G12&gt;0,$I12-$H12&gt;0,$J12-$I12&gt;0,$K12-$J12&gt;0,$L12-$K12&gt;0),
-    IF($F12-$D12:$D12&gt;0,IF($G12-$D12&gt;0,IF($G12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G12-$D12:$D12&gt;0,IF($H12-$D12&gt;0,IF($H12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H12-$D12:$D12&gt;0,IF($I12-$D12&gt;0,IF($I12/$D12:$D12&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I12-$D12:$D12&gt;0,IF($J12-$D12&gt;0,IF($J12/$D12:$D12&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J12-$D12:$D12&gt;0,IF($K12-$D12&gt;0,IF($K12/$D12:$D12&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K12-$D12:$D12&gt;0,IF($L12-$D12&gt;0,IF($L12/$D12:$D12&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L12-$D12:$D12&gt;0,IF($M12-$D12&gt;0,IF($M12/$D12:$D12&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L12&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S12" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T12" s="19">
@@ -1331,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1360,18 +1246,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S13" s="18" t="str" cm="1">
-        <f t="array" ref="S13">IFERROR(
-    IF($E13&gt;$D13,IF(OR($E13/$D13&gt;=1.4,$F13/$D13&gt;=1.4,$H13/$D13&gt;=1.4,$I13/$D13&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F13-E13&gt;0,G13-F13&gt;0,$H13-$G13&gt;0,$I13-$H13&gt;0,$J13-$I13&gt;0,$K13-$J13&gt;0,$L13-$K13&gt;0),
-    IF($F13-$D13:$D13&gt;0,IF($G13-$D13&gt;0,IF($G13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G13-$D13:$D13&gt;0,IF($H13-$D13&gt;0,IF($H13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H13-$D13:$D13&gt;0,IF($I13-$D13&gt;0,IF($I13/$D13:$D13&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I13-$D13:$D13&gt;0,IF($J13-$D13&gt;0,IF($J13/$D13:$D13&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J13-$D13:$D13&gt;0,IF($K13-$D13&gt;0,IF($K13/$D13:$D13&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K13-$D13:$D13&gt;0,IF($L13-$D13&gt;0,IF($L13/$D13:$D13&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L13-$D13:$D13&gt;0,IF($M13-$D13&gt;0,IF($M13/$D13:$D13&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L13&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S13" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T13" s="19">
@@ -1383,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1412,18 +1288,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S14" s="18" t="str" cm="1">
-        <f t="array" ref="S14">IFERROR(
-    IF($E14&gt;$D14,IF(OR($E14/$D14&gt;=1.4,$F14/$D14&gt;=1.4,$H14/$D14&gt;=1.4,$I14/$D14&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F14-E14&gt;0,G14-F14&gt;0,$H14-$G14&gt;0,$I14-$H14&gt;0,$J14-$I14&gt;0,$K14-$J14&gt;0,$L14-$K14&gt;0),
-    IF($F14-$D14:$D14&gt;0,IF($G14-$D14&gt;0,IF($G14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G14-$D14:$D14&gt;0,IF($H14-$D14&gt;0,IF($H14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H14-$D14:$D14&gt;0,IF($I14-$D14&gt;0,IF($I14/$D14:$D14&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I14-$D14:$D14&gt;0,IF($J14-$D14&gt;0,IF($J14/$D14:$D14&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J14-$D14:$D14&gt;0,IF($K14-$D14&gt;0,IF($K14/$D14:$D14&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K14-$D14:$D14&gt;0,IF($L14-$D14&gt;0,IF($L14/$D14:$D14&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L14-$D14:$D14&gt;0,IF($M14-$D14&gt;0,IF($M14/$D14:$D14&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L14&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S14" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T14" s="19">
@@ -1435,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1464,18 +1330,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S15" s="18" t="str" cm="1">
-        <f t="array" ref="S15">IFERROR(
-    IF($E15&gt;$D15,IF(OR($E15/$D15&gt;=1.4,$F15/$D15&gt;=1.4,$H15/$D15&gt;=1.4,$I15/$D15&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F15-E15&gt;0,G15-F15&gt;0,$H15-$G15&gt;0,$I15-$H15&gt;0,$J15-$I15&gt;0,$K15-$J15&gt;0,$L15-$K15&gt;0),
-    IF($F15-$D15:$D15&gt;0,IF($G15-$D15&gt;0,IF($G15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G15-$D15:$D15&gt;0,IF($H15-$D15&gt;0,IF($H15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H15-$D15:$D15&gt;0,IF($I15-$D15&gt;0,IF($I15/$D15:$D15&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I15-$D15:$D15&gt;0,IF($J15-$D15&gt;0,IF($J15/$D15:$D15&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J15-$D15:$D15&gt;0,IF($K15-$D15&gt;0,IF($K15/$D15:$D15&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K15-$D15:$D15&gt;0,IF($L15-$D15&gt;0,IF($L15/$D15:$D15&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L15-$D15:$D15&gt;0,IF($M15-$D15&gt;0,IF($M15/$D15:$D15&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L15&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S15" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T15" s="19">
@@ -1487,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1516,18 +1372,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S16" s="18" t="str" cm="1">
-        <f t="array" ref="S16">IFERROR(
-    IF($E16&gt;$D16,IF(OR($E16/$D16&gt;=1.4,$F16/$D16&gt;=1.4,$H16/$D16&gt;=1.4,$I16/$D16&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F16-E16&gt;0,G16-F16&gt;0,$H16-$G16&gt;0,$I16-$H16&gt;0,$J16-$I16&gt;0,$K16-$J16&gt;0,$L16-$K16&gt;0),
-    IF($F16-$D16:$D16&gt;0,IF($G16-$D16&gt;0,IF($G16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G16-$D16:$D16&gt;0,IF($H16-$D16&gt;0,IF($H16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H16-$D16:$D16&gt;0,IF($I16-$D16&gt;0,IF($I16/$D16:$D16&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I16-$D16:$D16&gt;0,IF($J16-$D16&gt;0,IF($J16/$D16:$D16&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J16-$D16:$D16&gt;0,IF($K16-$D16&gt;0,IF($K16/$D16:$D16&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K16-$D16:$D16&gt;0,IF($L16-$D16&gt;0,IF($L16/$D16:$D16&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L16-$D16:$D16&gt;0,IF($M16-$D16&gt;0,IF($M16/$D16:$D16&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L16&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S16" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T16" s="19">
@@ -1539,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1568,18 +1414,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S17" s="18" t="str" cm="1">
-        <f t="array" ref="S17">IFERROR(
-    IF($E17&gt;$D17,IF(OR($E17/$D17&gt;=1.4,$F17/$D17&gt;=1.4,$H17/$D17&gt;=1.4,$I17/$D17&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F17-E17&gt;0,G17-F17&gt;0,$H17-$G17&gt;0,$I17-$H17&gt;0,$J17-$I17&gt;0,$K17-$J17&gt;0,$L17-$K17&gt;0),
-    IF($F17-$D17:$D17&gt;0,IF($G17-$D17&gt;0,IF($G17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G17-$D17:$D17&gt;0,IF($H17-$D17&gt;0,IF($H17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H17-$D17:$D17&gt;0,IF($I17-$D17&gt;0,IF($I17/$D17:$D17&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I17-$D17:$D17&gt;0,IF($J17-$D17&gt;0,IF($J17/$D17:$D17&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J17-$D17:$D17&gt;0,IF($K17-$D17&gt;0,IF($K17/$D17:$D17&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K17-$D17:$D17&gt;0,IF($L17-$D17&gt;0,IF($L17/$D17:$D17&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L17-$D17:$D17&gt;0,IF($M17-$D17&gt;0,IF($M17/$D17:$D17&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L17&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S17" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T17" s="19">
@@ -1591,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1620,18 +1456,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S18" s="18" t="str" cm="1">
-        <f t="array" ref="S18">IFERROR(
-    IF($E18&gt;$D18,IF(OR($E18/$D18&gt;=1.4,$F18/$D18&gt;=1.4,$H18/$D18&gt;=1.4,$I18/$D18&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F18-E18&gt;0,G18-F18&gt;0,$H18-$G18&gt;0,$I18-$H18&gt;0,$J18-$I18&gt;0,$K18-$J18&gt;0,$L18-$K18&gt;0),
-    IF($F18-$D18:$D18&gt;0,IF($G18-$D18&gt;0,IF($G18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G18-$D18:$D18&gt;0,IF($H18-$D18&gt;0,IF($H18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H18-$D18:$D18&gt;0,IF($I18-$D18&gt;0,IF($I18/$D18:$D18&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I18-$D18:$D18&gt;0,IF($J18-$D18&gt;0,IF($J18/$D18:$D18&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J18-$D18:$D18&gt;0,IF($K18-$D18&gt;0,IF($K18/$D18:$D18&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K18-$D18:$D18&gt;0,IF($L18-$D18&gt;0,IF($L18/$D18:$D18&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L18-$D18:$D18&gt;0,IF($M18-$D18&gt;0,IF($M18/$D18:$D18&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L18&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S18" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T18" s="19">
@@ -1643,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1672,18 +1498,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S19" s="18" t="str" cm="1">
-        <f t="array" ref="S19">IFERROR(
-    IF($E19&gt;$D19,IF(OR($E19/$D19&gt;=1.4,$F19/$D19&gt;=1.4,$H19/$D19&gt;=1.4,$I19/$D19&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F19-E19&gt;0,G19-F19&gt;0,$H19-$G19&gt;0,$I19-$H19&gt;0,$J19-$I19&gt;0,$K19-$J19&gt;0,$L19-$K19&gt;0),
-    IF($F19-$D19:$D19&gt;0,IF($G19-$D19&gt;0,IF($G19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G19-$D19:$D19&gt;0,IF($H19-$D19&gt;0,IF($H19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H19-$D19:$D19&gt;0,IF($I19-$D19&gt;0,IF($I19/$D19:$D19&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I19-$D19:$D19&gt;0,IF($J19-$D19&gt;0,IF($J19/$D19:$D19&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J19-$D19:$D19&gt;0,IF($K19-$D19&gt;0,IF($K19/$D19:$D19&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K19-$D19:$D19&gt;0,IF($L19-$D19&gt;0,IF($L19/$D19:$D19&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L19-$D19:$D19&gt;0,IF($M19-$D19&gt;0,IF($M19/$D19:$D19&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L19&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S19" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T19" s="19">
@@ -1695,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1724,18 +1540,8 @@
         <f t="shared" si="3"/>
         <v>接近4期</v>
       </c>
-      <c r="S20" s="18" t="str" cm="1">
-        <f t="array" ref="S20">IFERROR(
-    IF($E20&gt;$D20,IF(OR($E20/$D20&gt;=1.4,$F20/$D20&gt;=1.4,$H20/$D20&gt;=1.4,$I20/$D20&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F20-E20&gt;0,G20-F20&gt;0,$H20-$G20&gt;0,$I20-$H20&gt;0,$J20-$I20&gt;0,$K20-$J20&gt;0,$L20-$K20&gt;0),
-    IF($F20-$D20:$D20&gt;0,IF($G20-$D20&gt;0,IF($G20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G20-$D20:$D20&gt;0,IF($H20-$D20&gt;0,IF($H20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H20-$D20:$D20&gt;0,IF($I20-$D20&gt;0,IF($I20/$D20:$D20&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I20-$D20:$D20&gt;0,IF($J20-$D20&gt;0,IF($J20/$D20:$D20&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J20-$D20:$D20&gt;0,IF($K20-$D20&gt;0,IF($K20/$D20:$D20&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K20-$D20:$D20&gt;0,IF($L20-$D20&gt;0,IF($L20/$D20:$D20&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L20-$D20:$D20&gt;0,IF($M20-$D20&gt;0,IF($M20/$D20:$D20&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L20&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+      <c r="S20" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T20" s="19">
@@ -1747,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1755,73 +1561,53 @@
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="Q21" s="17">
-        <f t="shared" ref="Q21:Q33" si="5">IFERROR($E21/$D21*100%,0%)</f>
+        <f t="shared" ref="Q21:Q33" si="6">IFERROR($E21/$D21*100%,0%)</f>
         <v>0</v>
       </c>
       <c r="R21" s="17" t="str">
-        <f t="shared" ref="R21:R33" si="6">IF(Q21&gt;=91%,"波型or4期",IF(Q21&gt;=85%,"3期or4期or递减型",IF(Q21&gt;=80%,"3期or4期",IF(Q21&gt;=60%,"波形or4期",IF(Q21&lt;60%,"接近4期")))))</f>
-        <v>接近4期</v>
-      </c>
-      <c r="S21" s="18" t="str" cm="1">
-        <f t="array" ref="S21">IFERROR(
-    IF($E21&gt;$D21,IF(OR($E21/$D21&gt;=1.4,$F21/$D21&gt;=1.4,$H21/$D21&gt;=1.4,$I21/$D21&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F21-E21&gt;0,G21-F21&gt;0,$H21-$G21&gt;0,$I21-$H21&gt;0,$J21-$I21&gt;0,$K21-$J21&gt;0,$L21-$K21&gt;0),
-    IF($F21-$D21:$D21&gt;0,IF($G21-$D21&gt;0,IF($G21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G21-$D21:$D21&gt;0,IF($H21-$D21&gt;0,IF($H21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H21-$D21:$D21&gt;0,IF($I21-$D21&gt;0,IF($I21/$D21:$D21&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I21-$D21:$D21&gt;0,IF($J21-$D21&gt;0,IF($J21/$D21:$D21&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J21-$D21:$D21&gt;0,IF($K21-$D21&gt;0,IF($K21/$D21:$D21&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K21-$D21:$D21&gt;0,IF($L21-$D21&gt;0,IF($L21/$D21:$D21&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L21-$D21:$D21&gt;0,IF($M21-$D21&gt;0,IF($M21/$D21:$D21&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L21&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" ref="R21:R33" si="7">IF(Q21&gt;=91%,"波型or4期",IF(Q21&gt;=85%,"3期or4期or递减型",IF(Q21&gt;=80%,"3期or4期",IF(Q21&gt;=60%,"波形or4期",IF(Q21&lt;60%,"接近4期")))))</f>
+        <v>接近4期</v>
+      </c>
+      <c r="S21" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T21" s="19">
-        <f t="shared" ref="T21:T33" si="7">IFERROR(MAX($E21:$P21),0)</f>
+        <f t="shared" ref="T21:T33" si="8">IFERROR(MAX($E21:$P21),0)</f>
         <v>0</v>
       </c>
       <c r="U21" s="22">
-        <f t="shared" ref="U21:U33" si="8">IFERROR(($T21-$D21)/$D21*100%,0)</f>
+        <f t="shared" ref="U21:U33" si="9">IFERROR(($T21-$D21)/$D21*100%,0)</f>
         <v>0</v>
       </c>
       <c r="V21" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S22" s="18" t="str" cm="1">
-        <f t="array" ref="S22">IFERROR(
-    IF($E22&gt;$D22,IF(OR($E22/$D22&gt;=1.4,$F22/$D22&gt;=1.4,$H22/$D22&gt;=1.4,$I22/$D22&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F22-E22&gt;0,G22-F22&gt;0,$H22-$G22&gt;0,$I22-$H22&gt;0,$J22-$I22&gt;0,$K22-$J22&gt;0,$L22-$K22&gt;0),
-    IF($F22-$D22:$D22&gt;0,IF($G22-$D22&gt;0,IF($G22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G22-$D22:$D22&gt;0,IF($H22-$D22&gt;0,IF($H22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H22-$D22:$D22&gt;0,IF($I22-$D22&gt;0,IF($I22/$D22:$D22&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I22-$D22:$D22&gt;0,IF($J22-$D22&gt;0,IF($J22/$D22:$D22&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J22-$D22:$D22&gt;0,IF($K22-$D22&gt;0,IF($K22/$D22:$D22&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K22-$D22:$D22&gt;0,IF($L22-$D22&gt;0,IF($L22/$D22:$D22&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L22-$D22:$D22&gt;0,IF($M22-$D22&gt;0,IF($M22/$D22:$D22&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L22&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S22" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T22" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U22" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V22" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1829,397 +1615,287 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="Q23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S23" s="18" t="str" cm="1">
-        <f t="array" ref="S23">IFERROR(
-    IF($E23&gt;$D23,IF(OR($E23/$D23&gt;=1.4,$F23/$D23&gt;=1.4,$H23/$D23&gt;=1.4,$I23/$D23&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F23-E23&gt;0,G23-F23&gt;0,$H23-$G23&gt;0,$I23-$H23&gt;0,$J23-$I23&gt;0,$K23-$J23&gt;0,$L23-$K23&gt;0),
-    IF($F23-$D23:$D23&gt;0,IF($G23-$D23&gt;0,IF($G23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G23-$D23:$D23&gt;0,IF($H23-$D23&gt;0,IF($H23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H23-$D23:$D23&gt;0,IF($I23-$D23&gt;0,IF($I23/$D23:$D23&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I23-$D23:$D23&gt;0,IF($J23-$D23&gt;0,IF($J23/$D23:$D23&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J23-$D23:$D23&gt;0,IF($K23-$D23&gt;0,IF($K23/$D23:$D23&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K23-$D23:$D23&gt;0,IF($L23-$D23&gt;0,IF($L23/$D23:$D23&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L23-$D23:$D23&gt;0,IF($M23-$D23&gt;0,IF($M23/$D23:$D23&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L23&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S23" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T23" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U23" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V23" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S24" s="18" t="str" cm="1">
-        <f t="array" ref="S24">IFERROR(
-    IF($E24&gt;$D24,IF(OR($E24/$D24&gt;=1.4,$F24/$D24&gt;=1.4,$H24/$D24&gt;=1.4,$I24/$D24&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F24-E24&gt;0,G24-F24&gt;0,$H24-$G24&gt;0,$I24-$H24&gt;0,$J24-$I24&gt;0,$K24-$J24&gt;0,$L24-$K24&gt;0),
-    IF($F24-$D24:$D24&gt;0,IF($G24-$D24&gt;0,IF($G24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G24-$D24:$D24&gt;0,IF($H24-$D24&gt;0,IF($H24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H24-$D24:$D24&gt;0,IF($I24-$D24&gt;0,IF($I24/$D24:$D24&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I24-$D24:$D24&gt;0,IF($J24-$D24&gt;0,IF($J24/$D24:$D24&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J24-$D24:$D24&gt;0,IF($K24-$D24&gt;0,IF($K24/$D24:$D24&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K24-$D24:$D24&gt;0,IF($L24-$D24&gt;0,IF($L24/$D24:$D24&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L24-$D24:$D24&gt;0,IF($M24-$D24&gt;0,IF($M24/$D24:$D24&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L24&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S24" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T24" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U24" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V24" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S25" s="18" t="str" cm="1">
-        <f t="array" ref="S25">IFERROR(
-    IF($E25&gt;$D25,IF(OR($E25/$D25&gt;=1.4,$F25/$D25&gt;=1.4,$H25/$D25&gt;=1.4,$I25/$D25&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F25-E25&gt;0,G25-F25&gt;0,$H25-$G25&gt;0,$I25-$H25&gt;0,$J25-$I25&gt;0,$K25-$J25&gt;0,$L25-$K25&gt;0),
-    IF($F25-$D25:$D25&gt;0,IF($G25-$D25&gt;0,IF($G25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G25-$D25:$D25&gt;0,IF($H25-$D25&gt;0,IF($H25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H25-$D25:$D25&gt;0,IF($I25-$D25&gt;0,IF($I25/$D25:$D25&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I25-$D25:$D25&gt;0,IF($J25-$D25&gt;0,IF($J25/$D25:$D25&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J25-$D25:$D25&gt;0,IF($K25-$D25&gt;0,IF($K25/$D25:$D25&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K25-$D25:$D25&gt;0,IF($L25-$D25&gt;0,IF($L25/$D25:$D25&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L25-$D25:$D25&gt;0,IF($M25-$D25&gt;0,IF($M25/$D25:$D25&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L25&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S25" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T25" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V25" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S26" s="18" t="str" cm="1">
-        <f t="array" ref="S26">IFERROR(
-    IF($E26&gt;$D26,IF(OR($E26/$D26&gt;=1.4,$F26/$D26&gt;=1.4,$H26/$D26&gt;=1.4,$I26/$D26&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F26-E26&gt;0,G26-F26&gt;0,$H26-$G26&gt;0,$I26-$H26&gt;0,$J26-$I26&gt;0,$K26-$J26&gt;0,$L26-$K26&gt;0),
-    IF($F26-$D26:$D26&gt;0,IF($G26-$D26&gt;0,IF($G26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G26-$D26:$D26&gt;0,IF($H26-$D26&gt;0,IF($H26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H26-$D26:$D26&gt;0,IF($I26-$D26&gt;0,IF($I26/$D26:$D26&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I26-$D26:$D26&gt;0,IF($J26-$D26&gt;0,IF($J26/$D26:$D26&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J26-$D26:$D26&gt;0,IF($K26-$D26&gt;0,IF($K26/$D26:$D26&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K26-$D26:$D26&gt;0,IF($L26-$D26&gt;0,IF($L26/$D26:$D26&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L26-$D26:$D26&gt;0,IF($M26-$D26&gt;0,IF($M26/$D26:$D26&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L26&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S26" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V26" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S27" s="18" t="str" cm="1">
-        <f t="array" ref="S27">IFERROR(
-    IF($E27&gt;$D27,IF(OR($E27/$D27&gt;=1.4,$F27/$D27&gt;=1.4,$H27/$D27&gt;=1.4,$I27/$D27&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F27-E27&gt;0,G27-F27&gt;0,$H27-$G27&gt;0,$I27-$H27&gt;0,$J27-$I27&gt;0,$K27-$J27&gt;0,$L27-$K27&gt;0),
-    IF($F27-$D27:$D27&gt;0,IF($G27-$D27&gt;0,IF($G27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G27-$D27:$D27&gt;0,IF($H27-$D27&gt;0,IF($H27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H27-$D27:$D27&gt;0,IF($I27-$D27&gt;0,IF($I27/$D27:$D27&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I27-$D27:$D27&gt;0,IF($J27-$D27&gt;0,IF($J27/$D27:$D27&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J27-$D27:$D27&gt;0,IF($K27-$D27&gt;0,IF($K27/$D27:$D27&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K27-$D27:$D27&gt;0,IF($L27-$D27&gt;0,IF($L27/$D27:$D27&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L27-$D27:$D27&gt;0,IF($M27-$D27&gt;0,IF($M27/$D27:$D27&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L27&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S27" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T27" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V27" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S28" s="18" t="str" cm="1">
-        <f t="array" ref="S28">IFERROR(
-    IF($E28&gt;$D28,IF(OR($E28/$D28&gt;=1.4,$F28/$D28&gt;=1.4,$H28/$D28&gt;=1.4,$I28/$D28&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F28-E28&gt;0,G28-F28&gt;0,$H28-$G28&gt;0,$I28-$H28&gt;0,$J28-$I28&gt;0,$K28-$J28&gt;0,$L28-$K28&gt;0),
-    IF($F28-$D28:$D28&gt;0,IF($G28-$D28&gt;0,IF($G28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G28-$D28:$D28&gt;0,IF($H28-$D28&gt;0,IF($H28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H28-$D28:$D28&gt;0,IF($I28-$D28&gt;0,IF($I28/$D28:$D28&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I28-$D28:$D28&gt;0,IF($J28-$D28&gt;0,IF($J28/$D28:$D28&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J28-$D28:$D28&gt;0,IF($K28-$D28&gt;0,IF($K28/$D28:$D28&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K28-$D28:$D28&gt;0,IF($L28-$D28&gt;0,IF($L28/$D28:$D28&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L28-$D28:$D28&gt;0,IF($M28-$D28&gt;0,IF($M28/$D28:$D28&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L28&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S28" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T28" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V28" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S29" s="18" t="str" cm="1">
-        <f t="array" ref="S29">IFERROR(
-    IF($E29&gt;$D29,IF(OR($E29/$D29&gt;=1.4,$F29/$D29&gt;=1.4,$H29/$D29&gt;=1.4,$I29/$D29&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F29-E29&gt;0,G29-F29&gt;0,$H29-$G29&gt;0,$I29-$H29&gt;0,$J29-$I29&gt;0,$K29-$J29&gt;0,$L29-$K29&gt;0),
-    IF($F29-$D29:$D29&gt;0,IF($G29-$D29&gt;0,IF($G29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G29-$D29:$D29&gt;0,IF($H29-$D29&gt;0,IF($H29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H29-$D29:$D29&gt;0,IF($I29-$D29&gt;0,IF($I29/$D29:$D29&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I29-$D29:$D29&gt;0,IF($J29-$D29&gt;0,IF($J29/$D29:$D29&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J29-$D29:$D29&gt;0,IF($K29-$D29&gt;0,IF($K29/$D29:$D29&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K29-$D29:$D29&gt;0,IF($L29-$D29&gt;0,IF($L29/$D29:$D29&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L29-$D29:$D29&gt;0,IF($M29-$D29&gt;0,IF($M29/$D29:$D29&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L29&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S29" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T29" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U29" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V29" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S30" s="18" t="str" cm="1">
-        <f t="array" ref="S30">IFERROR(
-    IF($E30&gt;$D30,IF(OR($E30/$D30&gt;=1.4,$F30/$D30&gt;=1.4,$H30/$D30&gt;=1.4,$I30/$D30&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F30-E30&gt;0,G30-F30&gt;0,$H30-$G30&gt;0,$I30-$H30&gt;0,$J30-$I30&gt;0,$K30-$J30&gt;0,$L30-$K30&gt;0),
-    IF($F30-$D30:$D30&gt;0,IF($G30-$D30&gt;0,IF($G30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G30-$D30:$D30&gt;0,IF($H30-$D30&gt;0,IF($H30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H30-$D30:$D30&gt;0,IF($I30-$D30&gt;0,IF($I30/$D30:$D30&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I30-$D30:$D30&gt;0,IF($J30-$D30&gt;0,IF($J30/$D30:$D30&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J30-$D30:$D30&gt;0,IF($K30-$D30&gt;0,IF($K30/$D30:$D30&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K30-$D30:$D30&gt;0,IF($L30-$D30&gt;0,IF($L30/$D30:$D30&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L30-$D30:$D30&gt;0,IF($M30-$D30&gt;0,IF($M30/$D30:$D30&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L30&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S30" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U30" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V30" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S31" s="18" t="str" cm="1">
-        <f t="array" ref="S31">IFERROR(
-    IF($E31&gt;$D31,IF(OR($E31/$D31&gt;=1.4,$F31/$D31&gt;=1.4,$H31/$D31&gt;=1.4,$I31/$D31&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F31-E31&gt;0,G31-F31&gt;0,$H31-$G31&gt;0,$I31-$H31&gt;0,$J31-$I31&gt;0,$K31-$J31&gt;0,$L31-$K31&gt;0),
-    IF($F31-$D31:$D31&gt;0,IF($G31-$D31&gt;0,IF($G31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G31-$D31:$D31&gt;0,IF($H31-$D31&gt;0,IF($H31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H31-$D31:$D31&gt;0,IF($I31-$D31&gt;0,IF($I31/$D31:$D31&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I31-$D31:$D31&gt;0,IF($J31-$D31&gt;0,IF($J31/$D31:$D31&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J31-$D31:$D31&gt;0,IF($K31-$D31&gt;0,IF($K31/$D31:$D31&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K31-$D31:$D31&gt;0,IF($L31-$D31&gt;0,IF($L31/$D31:$D31&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L31-$D31:$D31&gt;0,IF($M31-$D31&gt;0,IF($M31/$D31:$D31&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L31&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S31" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T31" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V31" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R32" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S32" s="18" t="str" cm="1">
-        <f t="array" ref="S32">IFERROR(
-    IF($E32&gt;$D32,IF(OR($E32/$D32&gt;=1.4,$F32/$D32&gt;=1.4,$H32/$D32&gt;=1.4,$I32/$D32&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F32-E32&gt;0,G32-F32&gt;0,$H32-$G32&gt;0,$I32-$H32&gt;0,$J32-$I32&gt;0,$K32-$J32&gt;0,$L32-$K32&gt;0),
-    IF($F32-$D32:$D32&gt;0,IF($G32-$D32&gt;0,IF($G32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G32-$D32:$D32&gt;0,IF($H32-$D32&gt;0,IF($H32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H32-$D32:$D32&gt;0,IF($I32-$D32&gt;0,IF($I32/$D32:$D32&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I32-$D32:$D32&gt;0,IF($J32-$D32&gt;0,IF($J32/$D32:$D32&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J32-$D32:$D32&gt;0,IF($K32-$D32&gt;0,IF($K32/$D32:$D32&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K32-$D32:$D32&gt;0,IF($L32-$D32&gt;0,IF($L32/$D32:$D32&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L32-$D32:$D32&gt;0,IF($M32-$D32&gt;0,IF($M32/$D32:$D32&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L32&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S32" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U32" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V32" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="33" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>接近4期</v>
-      </c>
-      <c r="S33" s="18" t="str" cm="1">
-        <f t="array" ref="S33">IFERROR(
-    IF($E33&gt;$D33,IF(OR($E33/$D33&gt;=1.4,$F33/$D33&gt;=1.4,$H33/$D33&gt;=1.4,$I33/$D33&gt;=1.4),"四期型，最高价在周三上午","波动型"),
-    IF(OR(F33-E33&gt;0,G33-F33&gt;0,$H33-$G33&gt;0,$I33-$H33&gt;0,$J33-$I33&gt;0,$K33-$J33&gt;0,$L33-$K33&gt;0),
-    IF($F33-$D33:$D33&gt;0,IF($G33-$D33&gt;0,IF($G33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G33-$D33:$D33&gt;0,IF($H33-$D33&gt;0,IF($H33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($H33-$D33:$D33&gt;0,IF($I33-$D33&gt;0,IF($I33/$D33:$D33&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I33-$D33:$D33&gt;0,IF($J33-$D33&gt;0,IF($J33/$D33:$D33&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J33-$D33:$D33&gt;0,IF($K33-$D33&gt;0,IF($K33/$D33:$D33&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K33-$D33:$D33&gt;0,IF($L33-$D33&gt;0,IF($L33/$D33:$D33&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L33-$D33:$D33&gt;0,IF($M33-$D33&gt;0,IF($M33/$D33:$D33&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
-    IF($L33&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
+        <f t="shared" si="7"/>
+        <v>接近4期</v>
+      </c>
+      <c r="S33" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>递减型或三期四期型</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U33" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V33" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -2265,7 +1941,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="str">
         <f>INDEX(基础数据!S:S,MATCH(MAX(基础数据!T:T),基础数据!T:T,0))</f>
-        <v>三期型，最高价在周三下午</v>
+        <v>三期型，最高价在周二下午</v>
       </c>
     </row>
   </sheetData>
@@ -2276,12 +1952,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2289,27 +1959,13 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master="">
     <arrUserId title="Range1"/>
@@ -2319,7 +1975,36 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2328,17 +2013,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2347,6 +2023,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2355,17 +2040,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/zh-cn.xlsx
+++ b/zh-cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大头菜证券\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658D4D8-56A0-4BDB-B350-E46F8E63EC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02163EC-2AB6-41D7-BBB0-3C698FBA2B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31515" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,18 +735,10 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>92</v>
-      </c>
-      <c r="E2" s="10">
-        <v>80</v>
-      </c>
-      <c r="F2" s="10">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10">
-        <v>184</v>
-      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -758,37 +750,37 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="17">
         <f t="shared" ref="Q2:Q20" si="0">IFERROR($E2/$D2*100%,0%)</f>
-        <v>0.86956521739130432</v>
+        <v>0</v>
       </c>
       <c r="R2" s="17" t="str">
         <f>IF(Q2&gt;=91%,"波型or4期",IF(Q2&gt;=85%,"3期or4期or递减型",IF(Q2&gt;=80%,"3期or4期",IF(Q2&gt;=60%,"波形or4期",IF(Q2&lt;60%,"接近4期")))))</f>
-        <v>3期or4期or递减型</v>
+        <v>接近4期</v>
       </c>
       <c r="S2" s="18" t="str">
         <f>IFERROR(
-    IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$H2/$D2&gt;=1.4,$I2/$D2&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$G2/$D2&gt;=1.4,$H2/$D2&gt;=1.4),"四期型，最高价在周二下午","波动型"),
     IF(OR(F2-E2&gt;0,G2-F2&gt;0,$H2-$G2&gt;0,$I2-$H2&gt;0,$J2-$I2&gt;0,$K2-$J2&gt;0,$L2-$K2&gt;0),
-    IF($F2-$E2&gt;0,IF($G2-$D2&gt;0,IF($G2/$D2&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G2-$F2&gt;0,IF($H2-$D2&gt;0,IF($H2/$D2&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周四上午"),"波动型"),
-    IF($H2-$G2&gt;0,IF($I2-$D2&gt;0,IF($I2/$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I2-$H2&gt;0,IF($J2-$D2&gt;0,IF($J2/$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J2-$I2&gt;0,IF($K2-$D2&gt;0,IF($K2/$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K2-$J2&gt;0,IF($L2-$D2&gt;0,IF($L2/$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L2-$K2&gt;0,IF($M2-$D2&gt;0,IF($M2/$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F2-$E2&gt;0,IF($G2-$F2&gt;0,IF($G2/$D2&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),"波动型"),
+    IF($G2-$F2&gt;0,IF($H2-$G2&gt;0,IF($H2/$D2&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),"波动型"),
+    IF($H2-$G2&gt;0,IF($I2-$H2&gt;0,IF($I2/$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I2-$H2&gt;0,IF($J2-$I2&gt;0,IF($J2/$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J2-$I2&gt;0,IF($K2-$J2&gt;0,IF($K2/$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K2-$J2&gt;0,IF($L2-$K2&gt;0,IF($L2/$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L2-$K2&gt;0,IF($M2-$L2&gt;0,IF($M2/$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
     IF($L2&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
-        <v>三期型，最高价在周二下午</v>
+        <v>递减型或三期四期型</v>
       </c>
       <c r="T2" s="19">
         <f t="shared" ref="T2:T20" si="1">IFERROR(MAX($E2:$P2),0)</f>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="U2" s="22">
         <f t="shared" ref="U2:U20" si="2">IFERROR(($T2-$D2)/$D2*100%,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="21" t="str">
         <f>IF(S2="递减型或三期四期型","数据不足，无法预测",IF(S2="递减型","快逃吧！回本没希望了",IF(S2="波动型",D2*0.9&amp;"~"&amp;D2*1.4,IF(LEFT(S2,3)="三期型",2*D2&amp;"~"&amp;6*D2,IF(LEFT(S2,3)="四期型",1.4*D2&amp;"~"&amp;2*D2)))))</f>
-        <v>184~552</v>
+        <v>数据不足，无法预测</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -818,15 +810,15 @@
       </c>
       <c r="S3" s="18" t="str">
         <f t="shared" ref="S3:S33" si="4">IFERROR(
-    IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$H3/$D3&gt;=1.4,$I3/$D3&gt;=1.4),"四期型，最高价在周三上午","波动型"),
+    IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$G3/$D3&gt;=1.4,$H3/$D3&gt;=1.4),"四期型，最高价在周二下午","波动型"),
     IF(OR(F3-E3&gt;0,G3-F3&gt;0,$H3-$G3&gt;0,$I3-$H3&gt;0,$J3-$I3&gt;0,$K3-$J3&gt;0,$L3-$K3&gt;0),
-    IF($F3-$E3&gt;0,IF($G3-$D3&gt;0,IF($G3/$D3&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周四上午"),"波动型"),
-    IF($G3-$F3&gt;0,IF($H3-$D3&gt;0,IF($H3/$D3&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周四上午"),"波动型"),
-    IF($H3-$G3&gt;0,IF($I3-$D3&gt;0,IF($I3/$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I3-$H3&gt;0,IF($J3-$D3&gt;0,IF($J3/$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J3-$I3&gt;0,IF($K3-$D3&gt;0,IF($K3/$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K3-$J3&gt;0,IF($L3-$D3&gt;0,IF($L3/$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L3-$K3&gt;0,IF($M3-$D3&gt;0,IF($M3/$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F3-$E3&gt;0,IF($G3-$F3&gt;0,IF($G3/$D3&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),"波动型"),
+    IF($G3-$F3&gt;0,IF($H3-$G3&gt;0,IF($H3/$D3&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),"波动型"),
+    IF($H3-$G3&gt;0,IF($I3-$H3&gt;0,IF($I3/$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
+    IF($I3-$H3&gt;0,IF($J3-$I3&gt;0,IF($J3/$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
+    IF($J3-$I3&gt;0,IF($K3-$J3&gt;0,IF($K3/$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
+    IF($K3-$J3&gt;0,IF($L3-$K3&gt;0,IF($L3/$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
+    IF($L3-$K3&gt;0,IF($M3-$L3&gt;0,IF($M3/$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
     IF($L3&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
@@ -1941,7 +1933,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="str">
         <f>INDEX(基础数据!S:S,MATCH(MAX(基础数据!T:T),基础数据!T:T,0))</f>
-        <v>三期型，最高价在周二下午</v>
+        <v>递减型或三期四期型</v>
       </c>
     </row>
   </sheetData>
@@ -1960,19 +1952,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master="">
-    <arrUserId title="Range1"/>
-  </rangeList>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,15 +1972,19 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master="">
+    <arrUserId title="Range1"/>
+  </rangeList>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2005,7 +1997,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2014,7 +2006,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2032,7 +2024,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2041,7 +2033,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/zh-cn.xlsx
+++ b/zh-cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大头菜证券\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02163EC-2AB6-41D7-BBB0-3C698FBA2B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A0B3A-BDD2-40D9-A75E-9C1E887E488C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34740" yWindow="4935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,7 +647,7 @@
     <col min="7" max="7" width="4.875" customWidth="1"/>
     <col min="8" max="8" width="5.125" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="4.375" customWidth="1"/>
+    <col min="10" max="10" width="5.75" customWidth="1"/>
     <col min="11" max="11" width="4.75" customWidth="1"/>
     <col min="12" max="12" width="4.625" customWidth="1"/>
     <col min="13" max="13" width="5.25" customWidth="1"/>
@@ -760,13 +760,13 @@
         <f>IFERROR(
     IF($E2&gt;$D2,IF(OR($E2/$D2&gt;=1.4,$F2/$D2&gt;=1.4,$G2/$D2&gt;=1.4,$H2/$D2&gt;=1.4),"四期型，最高价在周二下午","波动型"),
     IF(OR(F2-E2&gt;0,G2-F2&gt;0,$H2-$G2&gt;0,$I2-$H2&gt;0,$J2-$I2&gt;0,$K2-$J2&gt;0,$L2-$K2&gt;0),
-    IF($F2-$E2&gt;0,IF($G2-$F2&gt;0,IF($G2/$D2&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),"波动型"),
-    IF($G2-$F2&gt;0,IF($H2-$G2&gt;0,IF($H2/$D2&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),"波动型"),
-    IF($H2-$G2&gt;0,IF($I2-$H2&gt;0,IF($I2/$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I2-$H2&gt;0,IF($J2-$I2&gt;0,IF($J2/$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J2-$I2&gt;0,IF($K2-$J2&gt;0,IF($K2/$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K2-$J2&gt;0,IF($L2-$K2&gt;0,IF($L2/$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L2-$K2&gt;0,IF($M2-$L2&gt;0,IF($M2/$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F2-$E2&gt;0,IF($G2-$F2&gt;0,IF($G2/$D2&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),IF($G2=0,"三期或四期型", "波动型")),
+    IF($G2-$F2&gt;0,IF($H2-$G2&gt;0,IF($H2/$D2&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),IF($H2=0,"三期或四期型", "波动型")),
+    IF($H2-$G2&gt;0,IF($I2-$H2&gt;0,IF($I2/$D2&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),IF($I2=0,"三期或四期型", "波动型")),
+    IF($I2-$H2&gt;0,IF($J2-$I2&gt;0,IF($J2/$D2&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),IF($J2=0,"三期或四期型", "波动型")),
+    IF($J2-$I2&gt;0,IF($K2-$J2&gt;0,IF($K2/$D2&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),IF($K2=0,"三期或四期型", "波动型")),
+    IF($K2-$J2&gt;0,IF($L2-$K2&gt;0,IF($L2/$D2&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),IF($L2=0,"三期或四期型", "波动型")),
+    IF($L2-$K2&gt;0,IF($M2-$L2&gt;0,IF($M2/$D2&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),IF($M2=0,"三期或四期型", "波动型"))))))))),
     IF($L2&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
@@ -779,7 +779,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="21" t="str">
-        <f>IF(S2="递减型或三期四期型","数据不足，无法预测",IF(S2="递减型","快逃吧！回本没希望了",IF(S2="波动型",D2*0.9&amp;"~"&amp;D2*1.4,IF(LEFT(S2,3)="三期型",2*D2&amp;"~"&amp;6*D2,IF(LEFT(S2,3)="四期型",1.4*D2&amp;"~"&amp;2*D2)))))</f>
+        <f>IF(S2="递减型或三期四期型","数据不足，无法预测",
+    IF(S2="递减型","快逃吧！回本没希望了",
+    IF(S2="波动型",D2*0.9&amp;"~"&amp;D2*1.4,
+    IF(LEFT(S2,3)="三期型",2*D2&amp;"~"&amp;6*D2,
+    IF(LEFT(S2,3)="四期型",1.4*D2&amp;"~"&amp;2*D2,
+    IF(S2="三期或四期型",1.4*D2&amp;"~"&amp;6*D2))))))</f>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -812,13 +817,13 @@
         <f t="shared" ref="S3:S33" si="4">IFERROR(
     IF($E3&gt;$D3,IF(OR($E3/$D3&gt;=1.4,$F3/$D3&gt;=1.4,$G3/$D3&gt;=1.4,$H3/$D3&gt;=1.4),"四期型，最高价在周二下午","波动型"),
     IF(OR(F3-E3&gt;0,G3-F3&gt;0,$H3-$G3&gt;0,$I3-$H3&gt;0,$J3-$I3&gt;0,$K3-$J3&gt;0,$L3-$K3&gt;0),
-    IF($F3-$E3&gt;0,IF($G3-$F3&gt;0,IF($G3/$D3&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),"波动型"),
-    IF($G3-$F3&gt;0,IF($H3-$G3&gt;0,IF($H3/$D3&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),"波动型"),
-    IF($H3-$G3&gt;0,IF($I3-$H3&gt;0,IF($I3/$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),"波动型"),
-    IF($I3-$H3&gt;0,IF($J3-$I3&gt;0,IF($J3/$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),"波动型"),
-    IF($J3-$I3&gt;0,IF($K3-$J3&gt;0,IF($K3/$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),"波动型"),
-    IF($K3-$J3&gt;0,IF($L3-$K3&gt;0,IF($L3/$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),"波动型"),
-    IF($L3-$K3&gt;0,IF($M3-$L3&gt;0,IF($M3/$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),"波动型")))))))),
+    IF($F3-$E3&gt;0,IF($G3-$F3&gt;0,IF($G3/$D3&gt;1.4,"三期型，最高价在周二下午","四期型，最高价在周三上午"),IF($G3=0,"三期或四期型", "波动型")),
+    IF($G3-$F3&gt;0,IF($H3-$G3&gt;0,IF($H3/$D3&gt;1.4,"三期型，最高价在周三上午","四期型，最高价在周三下午"),IF($H3=0,"三期或四期型", "波动型")),
+    IF($H3-$G3&gt;0,IF($I3-$H3&gt;0,IF($I3/$D3&gt;1.4,"三期型，最高价在周三下午","四期型，最高价在周四上午"),IF($I3=0,"三期或四期型", "波动型")),
+    IF($I3-$H3&gt;0,IF($J3-$I3&gt;0,IF($J3/$D3&gt;1.4,"三期型，最高价在周四上午","四期型，最高价在周四下午"),IF($J3=0,"三期或四期型", "波动型")),
+    IF($J3-$I3&gt;0,IF($K3-$J3&gt;0,IF($K3/$D3&gt;1.4,"三期型，最高价在周四下午","四期型，最高价在周五上午"),IF($K3=0,"三期或四期型", "波动型")),
+    IF($K3-$J3&gt;0,IF($L3-$K3&gt;0,IF($L3/$D3&gt;1.4,"三期型，最高价在周五上午","四期型，最高价在周五下午"),IF($L3=0,"三期或四期型", "波动型")),
+    IF($L3-$K3&gt;0,IF($M3-$L3&gt;0,IF($M3/$D3&gt;1.4,"三期型，最高价在周五下午","四期型，最高价在周六上午"),IF($M3=0,"三期或四期型", "波动型"))))))))),
     IF($L3&gt;0,"递减型","递减型或三期四期型"))),"数据不足，无法分析")</f>
         <v>递减型或三期四期型</v>
       </c>
@@ -831,7 +836,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="21" t="str">
-        <f t="shared" ref="V3:V33" si="5">IF(S3="递减型或三期四期型","数据不足，无法预测",IF(S3="递减型","快逃吧！回本没希望了",IF(S3="波动型",D3*0.9&amp;"~"&amp;D3*1.4,IF(LEFT(S3,3)="三期型",2*D3&amp;"~"&amp;6*D3,IF(LEFT(S3,3)="四期型",1.4*D3&amp;"~"&amp;2*D3)))))</f>
+        <f t="shared" ref="V3:V33" si="5">IF(S3="递减型或三期四期型","数据不足，无法预测",
+    IF(S3="递减型","快逃吧！回本没希望了",
+    IF(S3="波动型",D3*0.9&amp;"~"&amp;D3*1.4,
+    IF(LEFT(S3,3)="三期型",2*D3&amp;"~"&amp;6*D3,
+    IF(LEFT(S3,3)="四期型",1.4*D3&amp;"~"&amp;2*D3,
+    IF(S3="三期或四期型",1.4*D3&amp;"~"&amp;6*D3))))))</f>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1952,15 +1962,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master="">
+    <arrUserId title="Range1"/>
+  </rangeList>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1972,19 +1986,15 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master="">
-    <arrUserId title="Range1"/>
-  </rangeList>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1997,7 +2007,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2006,7 +2016,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2024,7 +2034,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2033,7 +2043,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/zh-cn.xlsx
+++ b/zh-cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大头菜证券\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A0B3A-BDD2-40D9-A75E-9C1E887E488C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9F727-B219-4398-911F-EA3A03055CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="4935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34740" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="21" t="str">
-        <f t="shared" ref="V3:V33" si="5">IF(S3="递减型或三期四期型","数据不足，无法预测",
+        <f>IF(S3="递减型或三期四期型","数据不足，无法预测",
     IF(S3="递减型","快逃吧！回本没希望了",
     IF(S3="波动型",D3*0.9&amp;"~"&amp;D3*1.4,
     IF(LEFT(S3,3)="三期型",2*D3&amp;"~"&amp;6*D3,
@@ -883,7 +883,12 @@
         <v>0</v>
       </c>
       <c r="V4" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V3:V33" si="5">IF(S4="递减型或三期四期型","数据不足，无法预测",
+    IF(S4="递减型","快逃吧！回本没希望了",
+    IF(S4="波动型",D4*0.9&amp;"~"&amp;D4*1.4,
+    IF(LEFT(S4,3)="三期型",2*D4&amp;"~"&amp;6*D4,
+    IF(LEFT(S4,3)="四期型",1.4*D4&amp;"~"&amp;2*D4,
+    IF(S4="三期或四期型",1.4*D4&amp;"~"&amp;6*D4))))))</f>
         <v>数据不足，无法预测</v>
       </c>
     </row>
@@ -1962,19 +1967,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master="">
-    <arrUserId title="Range1"/>
-  </rangeList>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,15 +1987,19 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master="">
+    <arrUserId title="Range1"/>
+  </rangeList>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2007,7 +2012,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2016,7 +2021,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2034,7 +2039,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2043,7 +2048,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
